--- a/data/924/NBS/Producer Price Index for Industrial Products (The same _month last year=100).xlsx
+++ b/data/924/NBS/Producer Price Index for Industrial Products (The same _month last year=100).xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:RC4"/>
+  <dimension ref="A1:RD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,2350 +374,2355 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Mar 2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Feb 2022</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Jan 2022</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Dec 2021</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov 2021</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Oct 2021</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Sep 2021</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Aug 2021</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Jul 2021</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Jun 2021</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>May 2021</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Apr 2021</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Mar 2021</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Feb 2021</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Jan 2021</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Dec 2020</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Nov 2020</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Oct 2020</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Sep 2020</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Aug 2020</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Jul 2020</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>June 2020</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>May 2020</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Apr 2020</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Mar 2020</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Feb 2020</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Jan 2020</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Dec 2019</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Nov 2019</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Oct 2019</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Sep 2019</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Aug 2019</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Jul 2019</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Jun 2019</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>May 2019</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Apr 2019</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Mar 2019</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Feb 2019</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Jan 2019</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Dec 2018</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Nov 2018</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Oct 2018</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Sep 2018</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Aug 2018</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Jul 2018</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Jun 2018</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>May 2018</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Apr 2018</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Mar 2018</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Feb 2018</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Jan 2018</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Dec 2017</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Nov 2017</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Oct 2017</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>Sep 2017</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>Aug 2017</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>Jul 2017</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>Jun 2017</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>May 2017</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>Apr 2017</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>Mar 2017</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>Feb 2017</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>Jan 2017</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>Dec 2016</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>Nov 2016</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>Oct 2016</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>Sep 2016</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>Aug 2016</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>Jul 2016</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>Jun 2016</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>May 2016</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>Apr 2016</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>Mar 2016</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>Feb 2016</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>Jan 2016</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>Dec 2015</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>Nov 2015</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>Oct 2015</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>Sep 2015</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>Aug 2015</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>Jul 2015</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>Jun 2015</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>May 2015</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>Apr 2015</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>Mar 2015</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>Feb 2015</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>Jan 2015</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>Dec 2014</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>Nov 2014</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>Oct 2014</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>Sep 2014</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>Aug 2014</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>Jul 2014</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>Jun 2014</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>May 2014</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>Apr 2014</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>Mar 2014</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>Feb 2014</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>Jan 2014</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>Dec 2013</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>Nov 2013</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>Oct 2013</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>Sep 2013</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>Aug 2013</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>Jul 2013</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>Jun 2013</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>May 2013</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>Apr 2013</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>Mar 2013</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>Feb 2013</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>Jan 2013</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>Dec 2012</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>Nov 2012</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>Oct2012</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>Sep 2012</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>Aug 2012</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>Jul 2012</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>Jun2012</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>May 2012</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>Apr 2012</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>Mar 2012</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>Feb 2012</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>Jan 2012</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>Dec 2011</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>Nov 2011</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>Oct 2011</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>Sep 2011</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>Aug 2011</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>Jul 2011</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>Jun 2011</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>May 2011</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>Apr 2011</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>Mar 2011</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>Feb 2011</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>Jan 2011</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>Dec 2010</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>Nov 2010</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>Oct 2010</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>Sep 2010</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>Aug 2010</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>Jul 2010</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>Jun 2010</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>May 2010</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>Apr 2010</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>Mar 2010</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>Feb 2010</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>Jan 2010</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>Dec 2009</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>Nov 2009</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>Oct 2009</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>Sep 2009</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>Aug 2009</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>Jul 2009</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>Jun 2009</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>May 2009</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>Apr 2009</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>Mar 2009</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>Feb 2009</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>Jan 2009</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>Dec 2008</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>Nov 2008</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>Oct 2008</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>Sep 2008</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>Aug 2008</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>Jul 2008</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>Jun 2008</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>May 2008</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>Apr 2008</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>Mar 2008</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>Feb 2008</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>Jan 2008</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>Dec 2007</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>Nov 2007</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>Oct 2007</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>Sep 2007</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>Aug 2007</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>Jul 2007</t>
         </is>
       </c>
-      <c r="FV1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
         <is>
           <t>Jun 2007</t>
         </is>
       </c>
-      <c r="FW1" s="1" t="inlineStr">
+      <c r="FX1" s="1" t="inlineStr">
         <is>
           <t>May 2007</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="FY1" s="1" t="inlineStr">
         <is>
           <t>Apr 2007</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
+      <c r="FZ1" s="1" t="inlineStr">
         <is>
           <t>Mar 2007</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="GA1" s="1" t="inlineStr">
         <is>
           <t>Feb 2007</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="GB1" s="1" t="inlineStr">
         <is>
           <t>Jan 2007</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="GC1" s="1" t="inlineStr">
         <is>
           <t>Dec 2006</t>
         </is>
       </c>
-      <c r="GC1" s="1" t="inlineStr">
+      <c r="GD1" s="1" t="inlineStr">
         <is>
           <t>Nov 2006</t>
         </is>
       </c>
-      <c r="GD1" s="1" t="inlineStr">
+      <c r="GE1" s="1" t="inlineStr">
         <is>
           <t>Oct 2006</t>
         </is>
       </c>
-      <c r="GE1" s="1" t="inlineStr">
+      <c r="GF1" s="1" t="inlineStr">
         <is>
           <t>Sep 2006</t>
         </is>
       </c>
-      <c r="GF1" s="1" t="inlineStr">
+      <c r="GG1" s="1" t="inlineStr">
         <is>
           <t>Aug 2006</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>Jul 2006</t>
         </is>
       </c>
-      <c r="GH1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>Jun 2006</t>
         </is>
       </c>
-      <c r="GI1" s="1" t="inlineStr">
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>May 2006</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
         <is>
           <t>Apr 2006</t>
         </is>
       </c>
-      <c r="GK1" s="1" t="inlineStr">
+      <c r="GL1" s="1" t="inlineStr">
         <is>
           <t>Mar 2006</t>
         </is>
       </c>
-      <c r="GL1" s="1" t="inlineStr">
+      <c r="GM1" s="1" t="inlineStr">
         <is>
           <t>Feb 2006</t>
         </is>
       </c>
-      <c r="GM1" s="1" t="inlineStr">
+      <c r="GN1" s="1" t="inlineStr">
         <is>
           <t>Jan 2006</t>
         </is>
       </c>
-      <c r="GN1" s="1" t="inlineStr">
+      <c r="GO1" s="1" t="inlineStr">
         <is>
           <t>Dec 2005</t>
         </is>
       </c>
-      <c r="GO1" s="1" t="inlineStr">
+      <c r="GP1" s="1" t="inlineStr">
         <is>
           <t>Nov 2005</t>
         </is>
       </c>
-      <c r="GP1" s="1" t="inlineStr">
+      <c r="GQ1" s="1" t="inlineStr">
         <is>
           <t>Oct 2005</t>
         </is>
       </c>
-      <c r="GQ1" s="1" t="inlineStr">
+      <c r="GR1" s="1" t="inlineStr">
         <is>
           <t>Sep 2005</t>
         </is>
       </c>
-      <c r="GR1" s="1" t="inlineStr">
+      <c r="GS1" s="1" t="inlineStr">
         <is>
           <t>Aug 2005</t>
         </is>
       </c>
-      <c r="GS1" s="1" t="inlineStr">
+      <c r="GT1" s="1" t="inlineStr">
         <is>
           <t>Jul 2005</t>
         </is>
       </c>
-      <c r="GT1" s="1" t="inlineStr">
+      <c r="GU1" s="1" t="inlineStr">
         <is>
           <t>Jun 2005</t>
         </is>
       </c>
-      <c r="GU1" s="1" t="inlineStr">
+      <c r="GV1" s="1" t="inlineStr">
         <is>
           <t>May 2005</t>
         </is>
       </c>
-      <c r="GV1" s="1" t="inlineStr">
+      <c r="GW1" s="1" t="inlineStr">
         <is>
           <t>Apr 2005</t>
         </is>
       </c>
-      <c r="GW1" s="1" t="inlineStr">
+      <c r="GX1" s="1" t="inlineStr">
         <is>
           <t>Mar 2005</t>
         </is>
       </c>
-      <c r="GX1" s="1" t="inlineStr">
+      <c r="GY1" s="1" t="inlineStr">
         <is>
           <t>Feb 2005</t>
         </is>
       </c>
-      <c r="GY1" s="1" t="inlineStr">
+      <c r="GZ1" s="1" t="inlineStr">
         <is>
           <t>Jan 2005</t>
         </is>
       </c>
-      <c r="GZ1" s="1" t="inlineStr">
+      <c r="HA1" s="1" t="inlineStr">
         <is>
           <t>Dec 2004</t>
         </is>
       </c>
-      <c r="HA1" s="1" t="inlineStr">
+      <c r="HB1" s="1" t="inlineStr">
         <is>
           <t>Nov 2004</t>
         </is>
       </c>
-      <c r="HB1" s="1" t="inlineStr">
+      <c r="HC1" s="1" t="inlineStr">
         <is>
           <t>Oct 2004</t>
         </is>
       </c>
-      <c r="HC1" s="1" t="inlineStr">
+      <c r="HD1" s="1" t="inlineStr">
         <is>
           <t>Sep 2004</t>
         </is>
       </c>
-      <c r="HD1" s="1" t="inlineStr">
+      <c r="HE1" s="1" t="inlineStr">
         <is>
           <t>Aug 2004</t>
         </is>
       </c>
-      <c r="HE1" s="1" t="inlineStr">
+      <c r="HF1" s="1" t="inlineStr">
         <is>
           <t>Jul 2004</t>
         </is>
       </c>
-      <c r="HF1" s="1" t="inlineStr">
+      <c r="HG1" s="1" t="inlineStr">
         <is>
           <t>Jun 2004</t>
         </is>
       </c>
-      <c r="HG1" s="1" t="inlineStr">
+      <c r="HH1" s="1" t="inlineStr">
         <is>
           <t>May 2004</t>
         </is>
       </c>
-      <c r="HH1" s="1" t="inlineStr">
+      <c r="HI1" s="1" t="inlineStr">
         <is>
           <t>Apr 2004</t>
         </is>
       </c>
-      <c r="HI1" s="1" t="inlineStr">
+      <c r="HJ1" s="1" t="inlineStr">
         <is>
           <t>Mar 2004</t>
         </is>
       </c>
-      <c r="HJ1" s="1" t="inlineStr">
+      <c r="HK1" s="1" t="inlineStr">
         <is>
           <t>Feb 2004</t>
         </is>
       </c>
-      <c r="HK1" s="1" t="inlineStr">
+      <c r="HL1" s="1" t="inlineStr">
         <is>
           <t>Jan 2004</t>
         </is>
       </c>
-      <c r="HL1" s="1" t="inlineStr">
+      <c r="HM1" s="1" t="inlineStr">
         <is>
           <t>Dec 2003</t>
         </is>
       </c>
-      <c r="HM1" s="1" t="inlineStr">
+      <c r="HN1" s="1" t="inlineStr">
         <is>
           <t>Nov 2003</t>
         </is>
       </c>
-      <c r="HN1" s="1" t="inlineStr">
+      <c r="HO1" s="1" t="inlineStr">
         <is>
           <t>Oct 2003</t>
         </is>
       </c>
-      <c r="HO1" s="1" t="inlineStr">
+      <c r="HP1" s="1" t="inlineStr">
         <is>
           <t>Sep 2003</t>
         </is>
       </c>
-      <c r="HP1" s="1" t="inlineStr">
+      <c r="HQ1" s="1" t="inlineStr">
         <is>
           <t>Aug 2003</t>
         </is>
       </c>
-      <c r="HQ1" s="1" t="inlineStr">
+      <c r="HR1" s="1" t="inlineStr">
         <is>
           <t>Jul 2003</t>
         </is>
       </c>
-      <c r="HR1" s="1" t="inlineStr">
+      <c r="HS1" s="1" t="inlineStr">
         <is>
           <t>Jun 2003</t>
         </is>
       </c>
-      <c r="HS1" s="1" t="inlineStr">
+      <c r="HT1" s="1" t="inlineStr">
         <is>
           <t>May 2003</t>
         </is>
       </c>
-      <c r="HT1" s="1" t="inlineStr">
+      <c r="HU1" s="1" t="inlineStr">
         <is>
           <t>Apr 2003</t>
         </is>
       </c>
-      <c r="HU1" s="1" t="inlineStr">
+      <c r="HV1" s="1" t="inlineStr">
         <is>
           <t>Mar 2003</t>
         </is>
       </c>
-      <c r="HV1" s="1" t="inlineStr">
+      <c r="HW1" s="1" t="inlineStr">
         <is>
           <t>Feb 2003</t>
         </is>
       </c>
-      <c r="HW1" s="1" t="inlineStr">
+      <c r="HX1" s="1" t="inlineStr">
         <is>
           <t>Jan 2003</t>
         </is>
       </c>
-      <c r="HX1" s="1" t="inlineStr">
+      <c r="HY1" s="1" t="inlineStr">
         <is>
           <t>Dec 2002</t>
         </is>
       </c>
-      <c r="HY1" s="1" t="inlineStr">
+      <c r="HZ1" s="1" t="inlineStr">
         <is>
           <t>Nov 2002</t>
         </is>
       </c>
-      <c r="HZ1" s="1" t="inlineStr">
+      <c r="IA1" s="1" t="inlineStr">
         <is>
           <t>Oct 2002</t>
         </is>
       </c>
-      <c r="IA1" s="1" t="inlineStr">
+      <c r="IB1" s="1" t="inlineStr">
         <is>
           <t>Sep 2002</t>
         </is>
       </c>
-      <c r="IB1" s="1" t="inlineStr">
+      <c r="IC1" s="1" t="inlineStr">
         <is>
           <t>Aug 2002</t>
         </is>
       </c>
-      <c r="IC1" s="1" t="inlineStr">
+      <c r="ID1" s="1" t="inlineStr">
         <is>
           <t>Jul 2002</t>
         </is>
       </c>
-      <c r="ID1" s="1" t="inlineStr">
+      <c r="IE1" s="1" t="inlineStr">
         <is>
           <t>Jun 2002</t>
         </is>
       </c>
-      <c r="IE1" s="1" t="inlineStr">
+      <c r="IF1" s="1" t="inlineStr">
         <is>
           <t>May 2002</t>
         </is>
       </c>
-      <c r="IF1" s="1" t="inlineStr">
+      <c r="IG1" s="1" t="inlineStr">
         <is>
           <t>Apr 2002</t>
         </is>
       </c>
-      <c r="IG1" s="1" t="inlineStr">
+      <c r="IH1" s="1" t="inlineStr">
         <is>
           <t>Mar 2002</t>
         </is>
       </c>
-      <c r="IH1" s="1" t="inlineStr">
+      <c r="II1" s="1" t="inlineStr">
         <is>
           <t>Feb 2002</t>
         </is>
       </c>
-      <c r="II1" s="1" t="inlineStr">
+      <c r="IJ1" s="1" t="inlineStr">
         <is>
           <t>Jan 2002</t>
         </is>
       </c>
-      <c r="IJ1" s="1" t="inlineStr">
+      <c r="IK1" s="1" t="inlineStr">
         <is>
           <t>Dec 2001</t>
         </is>
       </c>
-      <c r="IK1" s="1" t="inlineStr">
+      <c r="IL1" s="1" t="inlineStr">
         <is>
           <t>Nov 2001</t>
         </is>
       </c>
-      <c r="IL1" s="1" t="inlineStr">
+      <c r="IM1" s="1" t="inlineStr">
         <is>
           <t>Oct 2001</t>
         </is>
       </c>
-      <c r="IM1" s="1" t="inlineStr">
+      <c r="IN1" s="1" t="inlineStr">
         <is>
           <t>Sep 2001</t>
         </is>
       </c>
-      <c r="IN1" s="1" t="inlineStr">
+      <c r="IO1" s="1" t="inlineStr">
         <is>
           <t>Aug 2001</t>
         </is>
       </c>
-      <c r="IO1" s="1" t="inlineStr">
+      <c r="IP1" s="1" t="inlineStr">
         <is>
           <t>Jul 2001</t>
         </is>
       </c>
-      <c r="IP1" s="1" t="inlineStr">
+      <c r="IQ1" s="1" t="inlineStr">
         <is>
           <t>Jun 2001</t>
         </is>
       </c>
-      <c r="IQ1" s="1" t="inlineStr">
+      <c r="IR1" s="1" t="inlineStr">
         <is>
           <t>May 2001</t>
         </is>
       </c>
-      <c r="IR1" s="1" t="inlineStr">
+      <c r="IS1" s="1" t="inlineStr">
         <is>
           <t>Apr 2001</t>
         </is>
       </c>
-      <c r="IS1" s="1" t="inlineStr">
+      <c r="IT1" s="1" t="inlineStr">
         <is>
           <t>Mar 2001</t>
         </is>
       </c>
-      <c r="IT1" s="1" t="inlineStr">
+      <c r="IU1" s="1" t="inlineStr">
         <is>
           <t>Feb 2001</t>
         </is>
       </c>
-      <c r="IU1" s="1" t="inlineStr">
+      <c r="IV1" s="1" t="inlineStr">
         <is>
           <t>Jan 2001</t>
         </is>
       </c>
-      <c r="IV1" s="1" t="inlineStr">
+      <c r="IW1" s="1" t="inlineStr">
         <is>
           <t>Dec 2000</t>
         </is>
       </c>
-      <c r="IW1" s="1" t="inlineStr">
+      <c r="IX1" s="1" t="inlineStr">
         <is>
           <t>Nov 2000</t>
         </is>
       </c>
-      <c r="IX1" s="1" t="inlineStr">
+      <c r="IY1" s="1" t="inlineStr">
         <is>
           <t>Oct 2000</t>
         </is>
       </c>
-      <c r="IY1" s="1" t="inlineStr">
+      <c r="IZ1" s="1" t="inlineStr">
         <is>
           <t>Sep 2000</t>
         </is>
       </c>
-      <c r="IZ1" s="1" t="inlineStr">
+      <c r="JA1" s="1" t="inlineStr">
         <is>
           <t>Aug 2000</t>
         </is>
       </c>
-      <c r="JA1" s="1" t="inlineStr">
+      <c r="JB1" s="1" t="inlineStr">
         <is>
           <t>Jul 2000</t>
         </is>
       </c>
-      <c r="JB1" s="1" t="inlineStr">
+      <c r="JC1" s="1" t="inlineStr">
         <is>
           <t>Jun 2000</t>
         </is>
       </c>
-      <c r="JC1" s="1" t="inlineStr">
+      <c r="JD1" s="1" t="inlineStr">
         <is>
           <t>May 2000</t>
         </is>
       </c>
-      <c r="JD1" s="1" t="inlineStr">
+      <c r="JE1" s="1" t="inlineStr">
         <is>
           <t>Apr 2000</t>
         </is>
       </c>
-      <c r="JE1" s="1" t="inlineStr">
+      <c r="JF1" s="1" t="inlineStr">
         <is>
           <t>Mar 2000</t>
         </is>
       </c>
-      <c r="JF1" s="1" t="inlineStr">
+      <c r="JG1" s="1" t="inlineStr">
         <is>
           <t>Feb 2000</t>
         </is>
       </c>
-      <c r="JG1" s="1" t="inlineStr">
+      <c r="JH1" s="1" t="inlineStr">
         <is>
           <t>Jan 2000</t>
         </is>
       </c>
-      <c r="JH1" s="1" t="inlineStr">
+      <c r="JI1" s="1" t="inlineStr">
         <is>
           <t>Dec 1999</t>
         </is>
       </c>
-      <c r="JI1" s="1" t="inlineStr">
+      <c r="JJ1" s="1" t="inlineStr">
         <is>
           <t>Nov 1999</t>
         </is>
       </c>
-      <c r="JJ1" s="1" t="inlineStr">
+      <c r="JK1" s="1" t="inlineStr">
         <is>
           <t>Oct 1999</t>
         </is>
       </c>
-      <c r="JK1" s="1" t="inlineStr">
+      <c r="JL1" s="1" t="inlineStr">
         <is>
           <t>Sep 1999</t>
         </is>
       </c>
-      <c r="JL1" s="1" t="inlineStr">
+      <c r="JM1" s="1" t="inlineStr">
         <is>
           <t>Aug 1999</t>
         </is>
       </c>
-      <c r="JM1" s="1" t="inlineStr">
+      <c r="JN1" s="1" t="inlineStr">
         <is>
           <t>Jul 1999</t>
         </is>
       </c>
-      <c r="JN1" s="1" t="inlineStr">
+      <c r="JO1" s="1" t="inlineStr">
         <is>
           <t>Jun 1999</t>
         </is>
       </c>
-      <c r="JO1" s="1" t="inlineStr">
+      <c r="JP1" s="1" t="inlineStr">
         <is>
           <t>May 1999</t>
         </is>
       </c>
-      <c r="JP1" s="1" t="inlineStr">
+      <c r="JQ1" s="1" t="inlineStr">
         <is>
           <t>Apr 1999</t>
         </is>
       </c>
-      <c r="JQ1" s="1" t="inlineStr">
+      <c r="JR1" s="1" t="inlineStr">
         <is>
           <t>Mar 1999</t>
         </is>
       </c>
-      <c r="JR1" s="1" t="inlineStr">
+      <c r="JS1" s="1" t="inlineStr">
         <is>
           <t>Feb 1999</t>
         </is>
       </c>
-      <c r="JS1" s="1" t="inlineStr">
+      <c r="JT1" s="1" t="inlineStr">
         <is>
           <t>Jan 1999</t>
         </is>
       </c>
-      <c r="JT1" s="1" t="inlineStr">
+      <c r="JU1" s="1" t="inlineStr">
         <is>
           <t>Dec 1998</t>
         </is>
       </c>
-      <c r="JU1" s="1" t="inlineStr">
+      <c r="JV1" s="1" t="inlineStr">
         <is>
           <t>Nov 1998</t>
         </is>
       </c>
-      <c r="JV1" s="1" t="inlineStr">
+      <c r="JW1" s="1" t="inlineStr">
         <is>
           <t>Oct 1998</t>
         </is>
       </c>
-      <c r="JW1" s="1" t="inlineStr">
+      <c r="JX1" s="1" t="inlineStr">
         <is>
           <t>Sep 1998</t>
         </is>
       </c>
-      <c r="JX1" s="1" t="inlineStr">
+      <c r="JY1" s="1" t="inlineStr">
         <is>
           <t>Aug 1998</t>
         </is>
       </c>
-      <c r="JY1" s="1" t="inlineStr">
+      <c r="JZ1" s="1" t="inlineStr">
         <is>
           <t>Jul 1998</t>
         </is>
       </c>
-      <c r="JZ1" s="1" t="inlineStr">
+      <c r="KA1" s="1" t="inlineStr">
         <is>
           <t>Jun 1998</t>
         </is>
       </c>
-      <c r="KA1" s="1" t="inlineStr">
+      <c r="KB1" s="1" t="inlineStr">
         <is>
           <t>May 1998</t>
         </is>
       </c>
-      <c r="KB1" s="1" t="inlineStr">
+      <c r="KC1" s="1" t="inlineStr">
         <is>
           <t>Apr 1998</t>
         </is>
       </c>
-      <c r="KC1" s="1" t="inlineStr">
+      <c r="KD1" s="1" t="inlineStr">
         <is>
           <t>Mar 1998</t>
         </is>
       </c>
-      <c r="KD1" s="1" t="inlineStr">
+      <c r="KE1" s="1" t="inlineStr">
         <is>
           <t>Feb 1998</t>
         </is>
       </c>
-      <c r="KE1" s="1" t="inlineStr">
+      <c r="KF1" s="1" t="inlineStr">
         <is>
           <t>Jan 1998</t>
         </is>
       </c>
-      <c r="KF1" s="1" t="inlineStr">
+      <c r="KG1" s="1" t="inlineStr">
         <is>
           <t>Dec 1997</t>
         </is>
       </c>
-      <c r="KG1" s="1" t="inlineStr">
+      <c r="KH1" s="1" t="inlineStr">
         <is>
           <t>Nov 1997</t>
         </is>
       </c>
-      <c r="KH1" s="1" t="inlineStr">
+      <c r="KI1" s="1" t="inlineStr">
         <is>
           <t>Oct 1997</t>
         </is>
       </c>
-      <c r="KI1" s="1" t="inlineStr">
+      <c r="KJ1" s="1" t="inlineStr">
         <is>
           <t>Sep 1997</t>
         </is>
       </c>
-      <c r="KJ1" s="1" t="inlineStr">
+      <c r="KK1" s="1" t="inlineStr">
         <is>
           <t>Aug 1997</t>
         </is>
       </c>
-      <c r="KK1" s="1" t="inlineStr">
+      <c r="KL1" s="1" t="inlineStr">
         <is>
           <t>Jul 1997</t>
         </is>
       </c>
-      <c r="KL1" s="1" t="inlineStr">
+      <c r="KM1" s="1" t="inlineStr">
         <is>
           <t>Jun 1997</t>
         </is>
       </c>
-      <c r="KM1" s="1" t="inlineStr">
+      <c r="KN1" s="1" t="inlineStr">
         <is>
           <t>May 1997</t>
         </is>
       </c>
-      <c r="KN1" s="1" t="inlineStr">
+      <c r="KO1" s="1" t="inlineStr">
         <is>
           <t>Apr 1997</t>
         </is>
       </c>
-      <c r="KO1" s="1" t="inlineStr">
+      <c r="KP1" s="1" t="inlineStr">
         <is>
           <t>Mar 1997</t>
         </is>
       </c>
-      <c r="KP1" s="1" t="inlineStr">
+      <c r="KQ1" s="1" t="inlineStr">
         <is>
           <t>Feb 1997</t>
         </is>
       </c>
-      <c r="KQ1" s="1" t="inlineStr">
+      <c r="KR1" s="1" t="inlineStr">
         <is>
           <t>Jan 1997</t>
         </is>
       </c>
-      <c r="KR1" s="1" t="inlineStr">
+      <c r="KS1" s="1" t="inlineStr">
         <is>
           <t>Dec 1996</t>
         </is>
       </c>
-      <c r="KS1" s="1" t="inlineStr">
+      <c r="KT1" s="1" t="inlineStr">
         <is>
           <t>Nov 1996</t>
         </is>
       </c>
-      <c r="KT1" s="1" t="inlineStr">
+      <c r="KU1" s="1" t="inlineStr">
         <is>
           <t>Oct 1996</t>
         </is>
       </c>
-      <c r="KU1" s="1" t="inlineStr">
+      <c r="KV1" s="1" t="inlineStr">
         <is>
           <t>Sep 1996</t>
         </is>
       </c>
-      <c r="KV1" s="1" t="inlineStr">
+      <c r="KW1" s="1" t="inlineStr">
         <is>
           <t>Aug 1996</t>
         </is>
       </c>
-      <c r="KW1" s="1" t="inlineStr">
+      <c r="KX1" s="1" t="inlineStr">
         <is>
           <t>Jul 1996</t>
         </is>
       </c>
-      <c r="KX1" s="1" t="inlineStr">
+      <c r="KY1" s="1" t="inlineStr">
         <is>
           <t>Jun 1996</t>
         </is>
       </c>
-      <c r="KY1" s="1" t="inlineStr">
+      <c r="KZ1" s="1" t="inlineStr">
         <is>
           <t>May 1996</t>
         </is>
       </c>
-      <c r="KZ1" s="1" t="inlineStr">
+      <c r="LA1" s="1" t="inlineStr">
         <is>
           <t>Apr 1996</t>
         </is>
       </c>
-      <c r="LA1" s="1" t="inlineStr">
+      <c r="LB1" s="1" t="inlineStr">
         <is>
           <t>Mar 1996</t>
         </is>
       </c>
-      <c r="LB1" s="1" t="inlineStr">
+      <c r="LC1" s="1" t="inlineStr">
         <is>
           <t>Feb 1996</t>
         </is>
       </c>
-      <c r="LC1" s="1" t="inlineStr">
+      <c r="LD1" s="1" t="inlineStr">
         <is>
           <t>Jan 1996</t>
         </is>
       </c>
-      <c r="LD1" s="1" t="inlineStr">
+      <c r="LE1" s="1" t="inlineStr">
         <is>
           <t>Dec 1995</t>
         </is>
       </c>
-      <c r="LE1" s="1" t="inlineStr">
+      <c r="LF1" s="1" t="inlineStr">
         <is>
           <t>Nov 1995</t>
         </is>
       </c>
-      <c r="LF1" s="1" t="inlineStr">
+      <c r="LG1" s="1" t="inlineStr">
         <is>
           <t>Oct 1995</t>
         </is>
       </c>
-      <c r="LG1" s="1" t="inlineStr">
+      <c r="LH1" s="1" t="inlineStr">
         <is>
           <t>Sep 1995</t>
         </is>
       </c>
-      <c r="LH1" s="1" t="inlineStr">
+      <c r="LI1" s="1" t="inlineStr">
         <is>
           <t>Aug 1995</t>
         </is>
       </c>
-      <c r="LI1" s="1" t="inlineStr">
+      <c r="LJ1" s="1" t="inlineStr">
         <is>
           <t>Jul 1995</t>
         </is>
       </c>
-      <c r="LJ1" s="1" t="inlineStr">
+      <c r="LK1" s="1" t="inlineStr">
         <is>
           <t>Jun 1995</t>
         </is>
       </c>
-      <c r="LK1" s="1" t="inlineStr">
+      <c r="LL1" s="1" t="inlineStr">
         <is>
           <t>May 1995</t>
         </is>
       </c>
-      <c r="LL1" s="1" t="inlineStr">
+      <c r="LM1" s="1" t="inlineStr">
         <is>
           <t>Apr 1995</t>
         </is>
       </c>
-      <c r="LM1" s="1" t="inlineStr">
+      <c r="LN1" s="1" t="inlineStr">
         <is>
           <t>Mar 1995</t>
         </is>
       </c>
-      <c r="LN1" s="1" t="inlineStr">
+      <c r="LO1" s="1" t="inlineStr">
         <is>
           <t>Feb 1995</t>
         </is>
       </c>
-      <c r="LO1" s="1" t="inlineStr">
+      <c r="LP1" s="1" t="inlineStr">
         <is>
           <t>Jan 1995</t>
         </is>
       </c>
-      <c r="LP1" s="1" t="inlineStr">
+      <c r="LQ1" s="1" t="inlineStr">
         <is>
           <t>Dec 1994</t>
         </is>
       </c>
-      <c r="LQ1" s="1" t="inlineStr">
+      <c r="LR1" s="1" t="inlineStr">
         <is>
           <t>Nov 1994</t>
         </is>
       </c>
-      <c r="LR1" s="1" t="inlineStr">
+      <c r="LS1" s="1" t="inlineStr">
         <is>
           <t>Oct 1994</t>
         </is>
       </c>
-      <c r="LS1" s="1" t="inlineStr">
+      <c r="LT1" s="1" t="inlineStr">
         <is>
           <t>Sep 1994</t>
         </is>
       </c>
-      <c r="LT1" s="1" t="inlineStr">
+      <c r="LU1" s="1" t="inlineStr">
         <is>
           <t>Aug 1994</t>
         </is>
       </c>
-      <c r="LU1" s="1" t="inlineStr">
+      <c r="LV1" s="1" t="inlineStr">
         <is>
           <t>Jul 1994</t>
         </is>
       </c>
-      <c r="LV1" s="1" t="inlineStr">
+      <c r="LW1" s="1" t="inlineStr">
         <is>
           <t>Jun 1994</t>
         </is>
       </c>
-      <c r="LW1" s="1" t="inlineStr">
+      <c r="LX1" s="1" t="inlineStr">
         <is>
           <t>May 1994</t>
         </is>
       </c>
-      <c r="LX1" s="1" t="inlineStr">
+      <c r="LY1" s="1" t="inlineStr">
         <is>
           <t>Apr 1994</t>
         </is>
       </c>
-      <c r="LY1" s="1" t="inlineStr">
+      <c r="LZ1" s="1" t="inlineStr">
         <is>
           <t>Mar 1994</t>
         </is>
       </c>
-      <c r="LZ1" s="1" t="inlineStr">
+      <c r="MA1" s="1" t="inlineStr">
         <is>
           <t>Feb 1994</t>
         </is>
       </c>
-      <c r="MA1" s="1" t="inlineStr">
+      <c r="MB1" s="1" t="inlineStr">
         <is>
           <t>Jan 1994</t>
         </is>
       </c>
-      <c r="MB1" s="1" t="inlineStr">
+      <c r="MC1" s="1" t="inlineStr">
         <is>
           <t>Dec 1993</t>
         </is>
       </c>
-      <c r="MC1" s="1" t="inlineStr">
+      <c r="MD1" s="1" t="inlineStr">
         <is>
           <t>Nov 1993</t>
         </is>
       </c>
-      <c r="MD1" s="1" t="inlineStr">
+      <c r="ME1" s="1" t="inlineStr">
         <is>
           <t>Oct 1993</t>
         </is>
       </c>
-      <c r="ME1" s="1" t="inlineStr">
+      <c r="MF1" s="1" t="inlineStr">
         <is>
           <t>Sep 1993</t>
         </is>
       </c>
-      <c r="MF1" s="1" t="inlineStr">
+      <c r="MG1" s="1" t="inlineStr">
         <is>
           <t>Aug 1993</t>
         </is>
       </c>
-      <c r="MG1" s="1" t="inlineStr">
+      <c r="MH1" s="1" t="inlineStr">
         <is>
           <t>Jul 1993</t>
         </is>
       </c>
-      <c r="MH1" s="1" t="inlineStr">
+      <c r="MI1" s="1" t="inlineStr">
         <is>
           <t>Jun 1993</t>
         </is>
       </c>
-      <c r="MI1" s="1" t="inlineStr">
+      <c r="MJ1" s="1" t="inlineStr">
         <is>
           <t>May 1993</t>
         </is>
       </c>
-      <c r="MJ1" s="1" t="inlineStr">
+      <c r="MK1" s="1" t="inlineStr">
         <is>
           <t>Apr 1993</t>
         </is>
       </c>
-      <c r="MK1" s="1" t="inlineStr">
+      <c r="ML1" s="1" t="inlineStr">
         <is>
           <t>Mar 1993</t>
         </is>
       </c>
-      <c r="ML1" s="1" t="inlineStr">
+      <c r="MM1" s="1" t="inlineStr">
         <is>
           <t>Feb 1993</t>
         </is>
       </c>
-      <c r="MM1" s="1" t="inlineStr">
+      <c r="MN1" s="1" t="inlineStr">
         <is>
           <t>Jan 1993</t>
         </is>
       </c>
-      <c r="MN1" s="1" t="inlineStr">
+      <c r="MO1" s="1" t="inlineStr">
         <is>
           <t>Dec 1992</t>
         </is>
       </c>
-      <c r="MO1" s="1" t="inlineStr">
+      <c r="MP1" s="1" t="inlineStr">
         <is>
           <t>Nov 1992</t>
         </is>
       </c>
-      <c r="MP1" s="1" t="inlineStr">
+      <c r="MQ1" s="1" t="inlineStr">
         <is>
           <t>Oct 1992</t>
         </is>
       </c>
-      <c r="MQ1" s="1" t="inlineStr">
+      <c r="MR1" s="1" t="inlineStr">
         <is>
           <t>Sep 1992</t>
         </is>
       </c>
-      <c r="MR1" s="1" t="inlineStr">
+      <c r="MS1" s="1" t="inlineStr">
         <is>
           <t>Aug 1992</t>
         </is>
       </c>
-      <c r="MS1" s="1" t="inlineStr">
+      <c r="MT1" s="1" t="inlineStr">
         <is>
           <t>Jul 1992</t>
         </is>
       </c>
-      <c r="MT1" s="1" t="inlineStr">
+      <c r="MU1" s="1" t="inlineStr">
         <is>
           <t>Jun 1992</t>
         </is>
       </c>
-      <c r="MU1" s="1" t="inlineStr">
+      <c r="MV1" s="1" t="inlineStr">
         <is>
           <t>May 1992</t>
         </is>
       </c>
-      <c r="MV1" s="1" t="inlineStr">
+      <c r="MW1" s="1" t="inlineStr">
         <is>
           <t>Apr 1992</t>
         </is>
       </c>
-      <c r="MW1" s="1" t="inlineStr">
+      <c r="MX1" s="1" t="inlineStr">
         <is>
           <t>Mar 1992</t>
         </is>
       </c>
-      <c r="MX1" s="1" t="inlineStr">
+      <c r="MY1" s="1" t="inlineStr">
         <is>
           <t>Feb 1992</t>
         </is>
       </c>
-      <c r="MY1" s="1" t="inlineStr">
+      <c r="MZ1" s="1" t="inlineStr">
         <is>
           <t>Jan 1992</t>
         </is>
       </c>
-      <c r="MZ1" s="1" t="inlineStr">
+      <c r="NA1" s="1" t="inlineStr">
         <is>
           <t>Dec 1991</t>
         </is>
       </c>
-      <c r="NA1" s="1" t="inlineStr">
+      <c r="NB1" s="1" t="inlineStr">
         <is>
           <t>Nov 1991</t>
         </is>
       </c>
-      <c r="NB1" s="1" t="inlineStr">
+      <c r="NC1" s="1" t="inlineStr">
         <is>
           <t>Oct 1991</t>
         </is>
       </c>
-      <c r="NC1" s="1" t="inlineStr">
+      <c r="ND1" s="1" t="inlineStr">
         <is>
           <t>Sep 1991</t>
         </is>
       </c>
-      <c r="ND1" s="1" t="inlineStr">
+      <c r="NE1" s="1" t="inlineStr">
         <is>
           <t>Aug 1991</t>
         </is>
       </c>
-      <c r="NE1" s="1" t="inlineStr">
+      <c r="NF1" s="1" t="inlineStr">
         <is>
           <t>Jul 1991</t>
         </is>
       </c>
-      <c r="NF1" s="1" t="inlineStr">
+      <c r="NG1" s="1" t="inlineStr">
         <is>
           <t>Jun 1991</t>
         </is>
       </c>
-      <c r="NG1" s="1" t="inlineStr">
+      <c r="NH1" s="1" t="inlineStr">
         <is>
           <t>May 1991</t>
         </is>
       </c>
-      <c r="NH1" s="1" t="inlineStr">
+      <c r="NI1" s="1" t="inlineStr">
         <is>
           <t>Apr 1991</t>
         </is>
       </c>
-      <c r="NI1" s="1" t="inlineStr">
+      <c r="NJ1" s="1" t="inlineStr">
         <is>
           <t>Mar 1991</t>
         </is>
       </c>
-      <c r="NJ1" s="1" t="inlineStr">
+      <c r="NK1" s="1" t="inlineStr">
         <is>
           <t>Feb 1991</t>
         </is>
       </c>
-      <c r="NK1" s="1" t="inlineStr">
+      <c r="NL1" s="1" t="inlineStr">
         <is>
           <t>Jan 1991</t>
         </is>
       </c>
-      <c r="NL1" s="1" t="inlineStr">
+      <c r="NM1" s="1" t="inlineStr">
         <is>
           <t>Dec 1990</t>
         </is>
       </c>
-      <c r="NM1" s="1" t="inlineStr">
+      <c r="NN1" s="1" t="inlineStr">
         <is>
           <t>Nov 1990</t>
         </is>
       </c>
-      <c r="NN1" s="1" t="inlineStr">
+      <c r="NO1" s="1" t="inlineStr">
         <is>
           <t>Oct 1990</t>
         </is>
       </c>
-      <c r="NO1" s="1" t="inlineStr">
+      <c r="NP1" s="1" t="inlineStr">
         <is>
           <t>Sep 1990</t>
         </is>
       </c>
-      <c r="NP1" s="1" t="inlineStr">
+      <c r="NQ1" s="1" t="inlineStr">
         <is>
           <t>Aug 1990</t>
         </is>
       </c>
-      <c r="NQ1" s="1" t="inlineStr">
+      <c r="NR1" s="1" t="inlineStr">
         <is>
           <t>Jul 1990</t>
         </is>
       </c>
-      <c r="NR1" s="1" t="inlineStr">
+      <c r="NS1" s="1" t="inlineStr">
         <is>
           <t>Jun 1990</t>
         </is>
       </c>
-      <c r="NS1" s="1" t="inlineStr">
+      <c r="NT1" s="1" t="inlineStr">
         <is>
           <t>May 1990</t>
         </is>
       </c>
-      <c r="NT1" s="1" t="inlineStr">
+      <c r="NU1" s="1" t="inlineStr">
         <is>
           <t>Apr 1990</t>
         </is>
       </c>
-      <c r="NU1" s="1" t="inlineStr">
+      <c r="NV1" s="1" t="inlineStr">
         <is>
           <t>Mar 1990</t>
         </is>
       </c>
-      <c r="NV1" s="1" t="inlineStr">
+      <c r="NW1" s="1" t="inlineStr">
         <is>
           <t>Feb 1990</t>
         </is>
       </c>
-      <c r="NW1" s="1" t="inlineStr">
+      <c r="NX1" s="1" t="inlineStr">
         <is>
           <t>Jan 1990</t>
         </is>
       </c>
-      <c r="NX1" s="1" t="inlineStr">
+      <c r="NY1" s="1" t="inlineStr">
         <is>
           <t>Dec 1989</t>
         </is>
       </c>
-      <c r="NY1" s="1" t="inlineStr">
+      <c r="NZ1" s="1" t="inlineStr">
         <is>
           <t>Nov 1989</t>
         </is>
       </c>
-      <c r="NZ1" s="1" t="inlineStr">
+      <c r="OA1" s="1" t="inlineStr">
         <is>
           <t>Oct 1989</t>
         </is>
       </c>
-      <c r="OA1" s="1" t="inlineStr">
+      <c r="OB1" s="1" t="inlineStr">
         <is>
           <t>Sep 1989</t>
         </is>
       </c>
-      <c r="OB1" s="1" t="inlineStr">
+      <c r="OC1" s="1" t="inlineStr">
         <is>
           <t>Aug 1989</t>
         </is>
       </c>
-      <c r="OC1" s="1" t="inlineStr">
+      <c r="OD1" s="1" t="inlineStr">
         <is>
           <t>Jul 1989</t>
         </is>
       </c>
-      <c r="OD1" s="1" t="inlineStr">
+      <c r="OE1" s="1" t="inlineStr">
         <is>
           <t>Jun 1989</t>
         </is>
       </c>
-      <c r="OE1" s="1" t="inlineStr">
+      <c r="OF1" s="1" t="inlineStr">
         <is>
           <t>May 1989</t>
         </is>
       </c>
-      <c r="OF1" s="1" t="inlineStr">
+      <c r="OG1" s="1" t="inlineStr">
         <is>
           <t>Apr 1989</t>
         </is>
       </c>
-      <c r="OG1" s="1" t="inlineStr">
+      <c r="OH1" s="1" t="inlineStr">
         <is>
           <t>Mar 1989</t>
         </is>
       </c>
-      <c r="OH1" s="1" t="inlineStr">
+      <c r="OI1" s="1" t="inlineStr">
         <is>
           <t>Feb 1989</t>
         </is>
       </c>
-      <c r="OI1" s="1" t="inlineStr">
+      <c r="OJ1" s="1" t="inlineStr">
         <is>
           <t>Jan 1989</t>
         </is>
       </c>
-      <c r="OJ1" s="1" t="inlineStr">
+      <c r="OK1" s="1" t="inlineStr">
         <is>
           <t>Dec 1988</t>
         </is>
       </c>
-      <c r="OK1" s="1" t="inlineStr">
+      <c r="OL1" s="1" t="inlineStr">
         <is>
           <t>Nov 1988</t>
         </is>
       </c>
-      <c r="OL1" s="1" t="inlineStr">
+      <c r="OM1" s="1" t="inlineStr">
         <is>
           <t>Oct 1988</t>
         </is>
       </c>
-      <c r="OM1" s="1" t="inlineStr">
+      <c r="ON1" s="1" t="inlineStr">
         <is>
           <t>Sep 1988</t>
         </is>
       </c>
-      <c r="ON1" s="1" t="inlineStr">
+      <c r="OO1" s="1" t="inlineStr">
         <is>
           <t>Aug 1988</t>
         </is>
       </c>
-      <c r="OO1" s="1" t="inlineStr">
+      <c r="OP1" s="1" t="inlineStr">
         <is>
           <t>Jul 1988</t>
         </is>
       </c>
-      <c r="OP1" s="1" t="inlineStr">
+      <c r="OQ1" s="1" t="inlineStr">
         <is>
           <t>Jun 1988</t>
         </is>
       </c>
-      <c r="OQ1" s="1" t="inlineStr">
+      <c r="OR1" s="1" t="inlineStr">
         <is>
           <t>May 1988</t>
         </is>
       </c>
-      <c r="OR1" s="1" t="inlineStr">
+      <c r="OS1" s="1" t="inlineStr">
         <is>
           <t>Apr 1988</t>
         </is>
       </c>
-      <c r="OS1" s="1" t="inlineStr">
+      <c r="OT1" s="1" t="inlineStr">
         <is>
           <t>Mar 1988</t>
         </is>
       </c>
-      <c r="OT1" s="1" t="inlineStr">
+      <c r="OU1" s="1" t="inlineStr">
         <is>
           <t>Feb 1988</t>
         </is>
       </c>
-      <c r="OU1" s="1" t="inlineStr">
+      <c r="OV1" s="1" t="inlineStr">
         <is>
           <t>Jan 1988</t>
         </is>
       </c>
-      <c r="OV1" s="1" t="inlineStr">
+      <c r="OW1" s="1" t="inlineStr">
         <is>
           <t>Dec 1987</t>
         </is>
       </c>
-      <c r="OW1" s="1" t="inlineStr">
+      <c r="OX1" s="1" t="inlineStr">
         <is>
           <t>Nov 1987</t>
         </is>
       </c>
-      <c r="OX1" s="1" t="inlineStr">
+      <c r="OY1" s="1" t="inlineStr">
         <is>
           <t>Oct 1987</t>
         </is>
       </c>
-      <c r="OY1" s="1" t="inlineStr">
+      <c r="OZ1" s="1" t="inlineStr">
         <is>
           <t>Sep 1987</t>
         </is>
       </c>
-      <c r="OZ1" s="1" t="inlineStr">
+      <c r="PA1" s="1" t="inlineStr">
         <is>
           <t>Aug 1987</t>
         </is>
       </c>
-      <c r="PA1" s="1" t="inlineStr">
+      <c r="PB1" s="1" t="inlineStr">
         <is>
           <t>Jul 1987</t>
         </is>
       </c>
-      <c r="PB1" s="1" t="inlineStr">
+      <c r="PC1" s="1" t="inlineStr">
         <is>
           <t>Jun 1987</t>
         </is>
       </c>
-      <c r="PC1" s="1" t="inlineStr">
+      <c r="PD1" s="1" t="inlineStr">
         <is>
           <t>May 1987</t>
         </is>
       </c>
-      <c r="PD1" s="1" t="inlineStr">
+      <c r="PE1" s="1" t="inlineStr">
         <is>
           <t>Apr 1987</t>
         </is>
       </c>
-      <c r="PE1" s="1" t="inlineStr">
+      <c r="PF1" s="1" t="inlineStr">
         <is>
           <t>Mar 1987</t>
         </is>
       </c>
-      <c r="PF1" s="1" t="inlineStr">
+      <c r="PG1" s="1" t="inlineStr">
         <is>
           <t>Feb 1987</t>
         </is>
       </c>
-      <c r="PG1" s="1" t="inlineStr">
+      <c r="PH1" s="1" t="inlineStr">
         <is>
           <t>Jan 1987</t>
         </is>
       </c>
-      <c r="PH1" s="1" t="inlineStr">
+      <c r="PI1" s="1" t="inlineStr">
         <is>
           <t>Dec 1986</t>
         </is>
       </c>
-      <c r="PI1" s="1" t="inlineStr">
+      <c r="PJ1" s="1" t="inlineStr">
         <is>
           <t>Nov 1986</t>
         </is>
       </c>
-      <c r="PJ1" s="1" t="inlineStr">
+      <c r="PK1" s="1" t="inlineStr">
         <is>
           <t>Oct 1986</t>
         </is>
       </c>
-      <c r="PK1" s="1" t="inlineStr">
+      <c r="PL1" s="1" t="inlineStr">
         <is>
           <t>Sep 1986</t>
         </is>
       </c>
-      <c r="PL1" s="1" t="inlineStr">
+      <c r="PM1" s="1" t="inlineStr">
         <is>
           <t>Aug 1986</t>
         </is>
       </c>
-      <c r="PM1" s="1" t="inlineStr">
+      <c r="PN1" s="1" t="inlineStr">
         <is>
           <t>Jul 1986</t>
         </is>
       </c>
-      <c r="PN1" s="1" t="inlineStr">
+      <c r="PO1" s="1" t="inlineStr">
         <is>
           <t>Jun 1986</t>
         </is>
       </c>
-      <c r="PO1" s="1" t="inlineStr">
+      <c r="PP1" s="1" t="inlineStr">
         <is>
           <t>May 1986</t>
         </is>
       </c>
-      <c r="PP1" s="1" t="inlineStr">
+      <c r="PQ1" s="1" t="inlineStr">
         <is>
           <t>Apr 1986</t>
         </is>
       </c>
-      <c r="PQ1" s="1" t="inlineStr">
+      <c r="PR1" s="1" t="inlineStr">
         <is>
           <t>Mar 1986</t>
         </is>
       </c>
-      <c r="PR1" s="1" t="inlineStr">
+      <c r="PS1" s="1" t="inlineStr">
         <is>
           <t>Feb 1986</t>
         </is>
       </c>
-      <c r="PS1" s="1" t="inlineStr">
+      <c r="PT1" s="1" t="inlineStr">
         <is>
           <t>Jan 1986</t>
         </is>
       </c>
-      <c r="PT1" s="1" t="inlineStr">
+      <c r="PU1" s="1" t="inlineStr">
         <is>
           <t>Dec 1985</t>
         </is>
       </c>
-      <c r="PU1" s="1" t="inlineStr">
+      <c r="PV1" s="1" t="inlineStr">
         <is>
           <t>Nov 1985</t>
         </is>
       </c>
-      <c r="PV1" s="1" t="inlineStr">
+      <c r="PW1" s="1" t="inlineStr">
         <is>
           <t>Oct 1985</t>
         </is>
       </c>
-      <c r="PW1" s="1" t="inlineStr">
+      <c r="PX1" s="1" t="inlineStr">
         <is>
           <t>Sep 1985</t>
         </is>
       </c>
-      <c r="PX1" s="1" t="inlineStr">
+      <c r="PY1" s="1" t="inlineStr">
         <is>
           <t>Aug 1985</t>
         </is>
       </c>
-      <c r="PY1" s="1" t="inlineStr">
+      <c r="PZ1" s="1" t="inlineStr">
         <is>
           <t>Jul 1985</t>
         </is>
       </c>
-      <c r="PZ1" s="1" t="inlineStr">
+      <c r="QA1" s="1" t="inlineStr">
         <is>
           <t>Jun 1985</t>
         </is>
       </c>
-      <c r="QA1" s="1" t="inlineStr">
+      <c r="QB1" s="1" t="inlineStr">
         <is>
           <t>May 1985</t>
         </is>
       </c>
-      <c r="QB1" s="1" t="inlineStr">
+      <c r="QC1" s="1" t="inlineStr">
         <is>
           <t>Apr 1985</t>
         </is>
       </c>
-      <c r="QC1" s="1" t="inlineStr">
+      <c r="QD1" s="1" t="inlineStr">
         <is>
           <t>Mar 1985</t>
         </is>
       </c>
-      <c r="QD1" s="1" t="inlineStr">
+      <c r="QE1" s="1" t="inlineStr">
         <is>
           <t>Feb 1985</t>
         </is>
       </c>
-      <c r="QE1" s="1" t="inlineStr">
+      <c r="QF1" s="1" t="inlineStr">
         <is>
           <t>Jan 1985</t>
         </is>
       </c>
-      <c r="QF1" s="1" t="inlineStr">
+      <c r="QG1" s="1" t="inlineStr">
         <is>
           <t>Dec 1984</t>
         </is>
       </c>
-      <c r="QG1" s="1" t="inlineStr">
+      <c r="QH1" s="1" t="inlineStr">
         <is>
           <t>Nov 1984</t>
         </is>
       </c>
-      <c r="QH1" s="1" t="inlineStr">
+      <c r="QI1" s="1" t="inlineStr">
         <is>
           <t>Oct 1984</t>
         </is>
       </c>
-      <c r="QI1" s="1" t="inlineStr">
+      <c r="QJ1" s="1" t="inlineStr">
         <is>
           <t>Sep 1984</t>
         </is>
       </c>
-      <c r="QJ1" s="1" t="inlineStr">
+      <c r="QK1" s="1" t="inlineStr">
         <is>
           <t>Aug 1984</t>
         </is>
       </c>
-      <c r="QK1" s="1" t="inlineStr">
+      <c r="QL1" s="1" t="inlineStr">
         <is>
           <t>Jul 1984</t>
         </is>
       </c>
-      <c r="QL1" s="1" t="inlineStr">
+      <c r="QM1" s="1" t="inlineStr">
         <is>
           <t>Jun 1984</t>
         </is>
       </c>
-      <c r="QM1" s="1" t="inlineStr">
+      <c r="QN1" s="1" t="inlineStr">
         <is>
           <t>May 1984</t>
         </is>
       </c>
-      <c r="QN1" s="1" t="inlineStr">
+      <c r="QO1" s="1" t="inlineStr">
         <is>
           <t>Apr 1984</t>
         </is>
       </c>
-      <c r="QO1" s="1" t="inlineStr">
+      <c r="QP1" s="1" t="inlineStr">
         <is>
           <t>Mar 1984</t>
         </is>
       </c>
-      <c r="QP1" s="1" t="inlineStr">
+      <c r="QQ1" s="1" t="inlineStr">
         <is>
           <t>Feb 1984</t>
         </is>
       </c>
-      <c r="QQ1" s="1" t="inlineStr">
+      <c r="QR1" s="1" t="inlineStr">
         <is>
           <t>Jan 1984</t>
         </is>
       </c>
-      <c r="QR1" s="1" t="inlineStr">
+      <c r="QS1" s="1" t="inlineStr">
         <is>
           <t>Dec 1983</t>
         </is>
       </c>
-      <c r="QS1" s="1" t="inlineStr">
+      <c r="QT1" s="1" t="inlineStr">
         <is>
           <t>Nov 1983</t>
         </is>
       </c>
-      <c r="QT1" s="1" t="inlineStr">
+      <c r="QU1" s="1" t="inlineStr">
         <is>
           <t>Oct 1983</t>
         </is>
       </c>
-      <c r="QU1" s="1" t="inlineStr">
+      <c r="QV1" s="1" t="inlineStr">
         <is>
           <t>Sep 1983</t>
         </is>
       </c>
-      <c r="QV1" s="1" t="inlineStr">
+      <c r="QW1" s="1" t="inlineStr">
         <is>
           <t>Aug 1983</t>
         </is>
       </c>
-      <c r="QW1" s="1" t="inlineStr">
+      <c r="QX1" s="1" t="inlineStr">
         <is>
           <t>Jul 1983</t>
         </is>
       </c>
-      <c r="QX1" s="1" t="inlineStr">
+      <c r="QY1" s="1" t="inlineStr">
         <is>
           <t>Jun 1983</t>
         </is>
       </c>
-      <c r="QY1" s="1" t="inlineStr">
+      <c r="QZ1" s="1" t="inlineStr">
         <is>
           <t>May 1983</t>
         </is>
       </c>
-      <c r="QZ1" s="1" t="inlineStr">
+      <c r="RA1" s="1" t="inlineStr">
         <is>
           <t>Apr 1983</t>
         </is>
       </c>
-      <c r="RA1" s="1" t="inlineStr">
+      <c r="RB1" s="1" t="inlineStr">
         <is>
           <t>Mar 1983</t>
         </is>
       </c>
-      <c r="RB1" s="1" t="inlineStr">
+      <c r="RC1" s="1" t="inlineStr">
         <is>
           <t>Feb 1983</t>
         </is>
       </c>
-      <c r="RC1" s="1" t="inlineStr">
+      <c r="RD1" s="1" t="inlineStr">
         <is>
           <t>Jan 1983</t>
         </is>
@@ -2730,172 +2735,172 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>108.3</v>
+      </c>
+      <c r="C2" t="n">
         <v>108.8</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>109.1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>110.3</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>112.9</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>113.5</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>110.7</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>109.5</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>109</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>108.8</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>109</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>106.8</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>104.4</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>101.7</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>100.3</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>98.5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>97.90000000000001</v>
       </c>
       <c r="S2" t="n">
         <v>97.90000000000001</v>
       </c>
       <c r="T2" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="U2" t="n">
         <v>98</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>97.59999999999999</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>97</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>96.3</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>96.90000000000001</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>98.5</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>100.1</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>99.5</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>98.59999999999999</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>98.40000000000001</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>98.8</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>99.2</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>99.7</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>100</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>100.6</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AK2" t="n">
         <v>100.9</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AL2" t="n">
         <v>100.4</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>100.1</v>
       </c>
       <c r="AM2" t="n">
         <v>100.1</v>
       </c>
       <c r="AN2" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="AO2" t="n">
         <v>100.9</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AP2" t="n">
         <v>102.7</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AQ2" t="n">
         <v>103.3</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AR2" t="n">
         <v>103.6</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
         <v>104.1</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AT2" t="n">
         <v>104.6</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AU2" t="n">
         <v>104.7</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AV2" t="n">
         <v>104.1</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AW2" t="n">
         <v>103.4</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AX2" t="n">
         <v>103.1</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AY2" t="n">
         <v>103.7</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AZ2" t="n">
         <v>104.3</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="BA2" t="n">
         <v>104.9</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BB2" t="n">
         <v>105.8</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>106.9</v>
       </c>
       <c r="BC2" t="n">
         <v>106.9</v>
       </c>
       <c r="BD2" t="n">
+        <v>106.9</v>
+      </c>
+      <c r="BE2" t="n">
         <v>106.3</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>105.5</v>
       </c>
       <c r="BF2" t="n">
         <v>105.5</v>
@@ -2904,55 +2909,55 @@
         <v>105.5</v>
       </c>
       <c r="BH2" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="BI2" t="n">
         <v>106.4</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BJ2" t="n">
         <v>107.6</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BK2" t="n">
         <v>107.8</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BL2" t="n">
         <v>106.9</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BM2" t="n">
         <v>105.5</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BN2" t="n">
         <v>103.3</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BO2" t="n">
         <v>101.2</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BP2" t="n">
         <v>100.1</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BQ2" t="n">
         <v>99.2</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BR2" t="n">
         <v>98.3</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BS2" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BT2" t="n">
         <v>97.2</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BU2" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="BV2" t="n">
         <v>95.7</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="BW2" t="n">
         <v>95.09999999999999</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="BX2" t="n">
         <v>94.7</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>94.09999999999999</v>
       </c>
       <c r="BY2" t="n">
         <v>94.09999999999999</v>
@@ -2967,13 +2972,13 @@
         <v>94.09999999999999</v>
       </c>
       <c r="CC2" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="CD2" t="n">
         <v>94.59999999999999</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CE2" t="n">
         <v>95.2</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>95.40000000000001</v>
       </c>
       <c r="CF2" t="n">
         <v>95.40000000000001</v>
@@ -2982,418 +2987,418 @@
         <v>95.40000000000001</v>
       </c>
       <c r="CH2" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="CI2" t="n">
         <v>95.2</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CJ2" t="n">
         <v>95.7</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="CK2" t="n">
         <v>96.7</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="CL2" t="n">
         <v>97.3</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="CM2" t="n">
         <v>97.8</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="CN2" t="n">
         <v>98.2</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="CO2" t="n">
         <v>98.8</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="CP2" t="n">
         <v>99.09999999999999</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="CQ2" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="CR2" t="n">
         <v>98.59999999999999</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="CS2" t="n">
         <v>98</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="CT2" t="n">
         <v>97.7</v>
       </c>
-      <c r="CT2" t="n">
+      <c r="CU2" t="n">
         <v>98</v>
       </c>
-      <c r="CU2" t="n">
+      <c r="CV2" t="n">
         <v>98.40000000000001</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>98.59999999999999</v>
       </c>
       <c r="CW2" t="n">
         <v>98.59999999999999</v>
       </c>
       <c r="CX2" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="CY2" t="n">
         <v>98.5</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="CZ2" t="n">
         <v>98.7</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="DA2" t="n">
         <v>98.40000000000001</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="DB2" t="n">
         <v>97.7</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="DC2" t="n">
         <v>97.3</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="DD2" t="n">
         <v>97.09999999999999</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="DE2" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="DF2" t="n">
         <v>98.09999999999999</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>98.40000000000001</v>
       </c>
       <c r="DG2" t="n">
         <v>98.40000000000001</v>
       </c>
       <c r="DH2" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="DI2" t="n">
         <v>98.09999999999999</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="DJ2" t="n">
         <v>97.8</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="DK2" t="n">
         <v>97.2</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="DL2" t="n">
         <v>96.40000000000001</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="DM2" t="n">
         <v>96.5</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="DN2" t="n">
         <v>97.09999999999999</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="DO2" t="n">
         <v>97.90000000000001</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="DP2" t="n">
         <v>98.59999999999999</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="DQ2" t="n">
         <v>99.3</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="DR2" t="n">
         <v>99.7</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="DS2" t="n">
         <v>100</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="DT2" t="n">
         <v>100.7</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="DU2" t="n">
         <v>101.7</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="DV2" t="n">
         <v>102.7</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="DW2" t="n">
         <v>105</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="DX2" t="n">
         <v>106.5</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="DY2" t="n">
         <v>107.3</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="DZ2" t="n">
         <v>107.5</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="EA2" t="n">
         <v>107.1</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>106.8</v>
       </c>
       <c r="EB2" t="n">
         <v>106.8</v>
       </c>
       <c r="EC2" t="n">
+        <v>106.8</v>
+      </c>
+      <c r="ED2" t="n">
         <v>107.3</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="EE2" t="n">
         <v>107.2</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="EF2" t="n">
         <v>106.6</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="EG2" t="n">
         <v>105.9</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="EH2" t="n">
         <v>106.1</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="EI2" t="n">
         <v>105</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>104.3</v>
       </c>
       <c r="EJ2" t="n">
         <v>104.3</v>
       </c>
       <c r="EK2" t="n">
+        <v>104.3</v>
+      </c>
+      <c r="EL2" t="n">
         <v>104.8</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EM2" t="n">
         <v>106.4</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EN2" t="n">
         <v>107.1</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="EO2" t="n">
         <v>106.8</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="EP2" t="n">
         <v>105.9</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="EQ2" t="n">
         <v>105.4</v>
       </c>
-      <c r="EQ2" t="n">
+      <c r="ER2" t="n">
         <v>104.3</v>
       </c>
-      <c r="ER2" t="n">
+      <c r="ES2" t="n">
         <v>101.7</v>
       </c>
-      <c r="ES2" t="n">
+      <c r="ET2" t="n">
         <v>97.90000000000001</v>
       </c>
-      <c r="ET2" t="n">
+      <c r="EU2" t="n">
         <v>94.2</v>
       </c>
-      <c r="EU2" t="n">
+      <c r="EV2" t="n">
         <v>93</v>
       </c>
-      <c r="EV2" t="n">
+      <c r="EW2" t="n">
         <v>92.09999999999999</v>
       </c>
-      <c r="EW2" t="n">
+      <c r="EX2" t="n">
         <v>91.8</v>
       </c>
-      <c r="EX2" t="n">
+      <c r="EY2" t="n">
         <v>92.2</v>
       </c>
-      <c r="EY2" t="n">
+      <c r="EZ2" t="n">
         <v>92.8</v>
       </c>
-      <c r="EZ2" t="n">
+      <c r="FA2" t="n">
         <v>93.40000000000001</v>
       </c>
-      <c r="FA2" t="n">
+      <c r="FB2" t="n">
         <v>94</v>
       </c>
-      <c r="FB2" t="n">
+      <c r="FC2" t="n">
         <v>95.5</v>
       </c>
-      <c r="FC2" t="n">
+      <c r="FD2" t="n">
         <v>96.7</v>
       </c>
-      <c r="FD2" t="n">
+      <c r="FE2" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="FE2" t="n">
+      <c r="FF2" t="n">
         <v>102</v>
       </c>
-      <c r="FF2" t="n">
+      <c r="FG2" t="n">
         <v>106.6</v>
       </c>
-      <c r="FG2" t="n">
+      <c r="FH2" t="n">
         <v>109.1</v>
       </c>
-      <c r="FH2" t="n">
+      <c r="FI2" t="n">
         <v>110.1</v>
       </c>
-      <c r="FI2" t="n">
+      <c r="FJ2" t="n">
         <v>110</v>
       </c>
-      <c r="FJ2" t="n">
+      <c r="FK2" t="n">
         <v>108.8</v>
       </c>
-      <c r="FK2" t="n">
+      <c r="FL2" t="n">
         <v>108.2</v>
       </c>
-      <c r="FL2" t="n">
+      <c r="FM2" t="n">
         <v>108.1</v>
       </c>
-      <c r="FM2" t="n">
+      <c r="FN2" t="n">
         <v>108</v>
       </c>
-      <c r="FN2" t="n">
+      <c r="FO2" t="n">
         <v>106.6</v>
       </c>
-      <c r="FO2" t="n">
+      <c r="FP2" t="n">
         <v>106.1</v>
       </c>
-      <c r="FP2" t="n">
+      <c r="FQ2" t="n">
         <v>105.4</v>
       </c>
-      <c r="FQ2" t="n">
+      <c r="FR2" t="n">
         <v>104.6</v>
       </c>
-      <c r="FR2" t="n">
+      <c r="FS2" t="n">
         <v>103.2</v>
       </c>
-      <c r="FS2" t="n">
+      <c r="FT2" t="n">
         <v>102.7</v>
       </c>
-      <c r="FT2" t="n">
+      <c r="FU2" t="n">
         <v>102.6</v>
       </c>
-      <c r="FU2" t="n">
+      <c r="FV2" t="n">
         <v>102.4</v>
       </c>
-      <c r="FV2" t="n">
+      <c r="FW2" t="n">
         <v>102.5</v>
       </c>
-      <c r="FW2" t="n">
+      <c r="FX2" t="n">
         <v>102.8</v>
       </c>
-      <c r="FX2" t="n">
+      <c r="FY2" t="n">
         <v>102.9</v>
       </c>
-      <c r="FY2" t="n">
+      <c r="FZ2" t="n">
         <v>102.7</v>
       </c>
-      <c r="FZ2" t="n">
+      <c r="GA2" t="n">
         <v>102.6</v>
       </c>
-      <c r="GA2" t="n">
+      <c r="GB2" t="n">
         <v>103.3</v>
       </c>
-      <c r="GB2" t="n">
+      <c r="GC2" t="n">
         <v>103.1</v>
       </c>
-      <c r="GC2" t="n">
+      <c r="GD2" t="n">
         <v>102.8</v>
       </c>
-      <c r="GD2" t="n">
+      <c r="GE2" t="n">
         <v>103</v>
       </c>
-      <c r="GE2" t="n">
+      <c r="GF2" t="n">
         <v>103.5</v>
       </c>
-      <c r="GF2" t="n">
+      <c r="GG2" t="n">
         <v>103.4</v>
       </c>
-      <c r="GG2" t="n">
+      <c r="GH2" t="n">
         <v>103.6</v>
       </c>
-      <c r="GH2" t="n">
+      <c r="GI2" t="n">
         <v>103.5</v>
       </c>
-      <c r="GI2" t="n">
+      <c r="GJ2" t="n">
         <v>102.4</v>
       </c>
-      <c r="GJ2" t="n">
+      <c r="GK2" t="n">
         <v>101.9</v>
       </c>
-      <c r="GK2" t="n">
+      <c r="GL2" t="n">
         <v>102.5</v>
       </c>
-      <c r="GL2" t="n">
+      <c r="GM2" t="n">
         <v>103</v>
       </c>
-      <c r="GM2" t="n">
+      <c r="GN2" t="n">
         <v>103.1</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>103.2</v>
       </c>
       <c r="GO2" t="n">
         <v>103.2</v>
       </c>
       <c r="GP2" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="GQ2" t="n">
         <v>104</v>
       </c>
-      <c r="GQ2" t="n">
+      <c r="GR2" t="n">
         <v>104.5</v>
       </c>
-      <c r="GR2" t="n">
+      <c r="GS2" t="n">
         <v>105.3</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>105.2</v>
       </c>
       <c r="GT2" t="n">
         <v>105.2</v>
       </c>
       <c r="GU2" t="n">
+        <v>105.2</v>
+      </c>
+      <c r="GV2" t="n">
         <v>106</v>
       </c>
-      <c r="GV2" t="n">
+      <c r="GW2" t="n">
         <v>105.8</v>
       </c>
-      <c r="GW2" t="n">
+      <c r="GX2" t="n">
         <v>105.6</v>
       </c>
-      <c r="GX2" t="n">
+      <c r="GY2" t="n">
         <v>105.4</v>
       </c>
-      <c r="GY2" t="n">
+      <c r="GZ2" t="n">
         <v>105.8</v>
       </c>
-      <c r="GZ2" t="n">
+      <c r="HA2" t="n">
         <v>107.1</v>
       </c>
-      <c r="HA2" t="n">
+      <c r="HB2" t="n">
         <v>108.1</v>
       </c>
-      <c r="HB2" t="n">
+      <c r="HC2" t="n">
         <v>108.4</v>
       </c>
-      <c r="HC2" t="n">
+      <c r="HD2" t="n">
         <v>108</v>
       </c>
-      <c r="HD2" t="n">
+      <c r="HE2" t="n">
         <v>106.8</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>106.4</v>
       </c>
       <c r="HF2" t="n">
         <v>106.4</v>
       </c>
       <c r="HG2" t="n">
+        <v>106.4</v>
+      </c>
+      <c r="HH2" t="n">
         <v>105.7</v>
       </c>
-      <c r="HH2" t="n">
+      <c r="HI2" t="n">
         <v>105</v>
       </c>
-      <c r="HI2" t="n">
+      <c r="HJ2" t="n">
         <v>104</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>103.5</v>
       </c>
       <c r="HK2" t="n">
         <v>103.5</v>
       </c>
       <c r="HL2" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="HM2" t="n">
         <v>103</v>
       </c>
-      <c r="HM2" t="n">
+      <c r="HN2" t="n">
         <v>101.9</v>
       </c>
-      <c r="HN2" t="n">
+      <c r="HO2" t="n">
         <v>101.2</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>101.4</v>
       </c>
       <c r="HP2" t="n">
         <v>101.4</v>
@@ -3402,211 +3407,211 @@
         <v>101.4</v>
       </c>
       <c r="HR2" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="HS2" t="n">
         <v>101.3</v>
       </c>
-      <c r="HS2" t="n">
+      <c r="HT2" t="n">
         <v>102</v>
       </c>
-      <c r="HT2" t="n">
+      <c r="HU2" t="n">
         <v>103.6</v>
       </c>
-      <c r="HU2" t="n">
+      <c r="HV2" t="n">
         <v>104.6</v>
       </c>
-      <c r="HV2" t="n">
+      <c r="HW2" t="n">
         <v>104</v>
       </c>
-      <c r="HW2" t="n">
+      <c r="HX2" t="n">
         <v>102.4</v>
       </c>
-      <c r="HX2" t="n">
+      <c r="HY2" t="n">
         <v>100.4</v>
       </c>
-      <c r="HY2" t="n">
+      <c r="HZ2" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="HZ2" t="n">
+      <c r="IA2" t="n">
         <v>99</v>
       </c>
-      <c r="IA2" t="n">
+      <c r="IB2" t="n">
         <v>98.59999999999999</v>
       </c>
-      <c r="IB2" t="n">
+      <c r="IC2" t="n">
         <v>98.3</v>
       </c>
-      <c r="IC2" t="n">
+      <c r="ID2" t="n">
         <v>97.7</v>
       </c>
-      <c r="ID2" t="n">
+      <c r="IE2" t="n">
         <v>97.5</v>
       </c>
-      <c r="IE2" t="n">
+      <c r="IF2" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="IF2" t="n">
+      <c r="IG2" t="n">
         <v>96.90000000000001</v>
       </c>
-      <c r="IG2" t="n">
+      <c r="IH2" t="n">
         <v>96</v>
       </c>
-      <c r="IH2" t="n">
+      <c r="II2" t="n">
         <v>95.90000000000001</v>
-      </c>
-      <c r="II2" t="n">
-        <v>96</v>
       </c>
       <c r="IJ2" t="n">
         <v>96</v>
       </c>
       <c r="IK2" t="n">
+        <v>96</v>
+      </c>
+      <c r="IL2" t="n">
         <v>96.3</v>
       </c>
-      <c r="IL2" t="n">
+      <c r="IM2" t="n">
         <v>96.90000000000001</v>
       </c>
-      <c r="IM2" t="n">
+      <c r="IN2" t="n">
         <v>97.09999999999999</v>
       </c>
-      <c r="IN2" t="n">
+      <c r="IO2" t="n">
         <v>98</v>
       </c>
-      <c r="IO2" t="n">
+      <c r="IP2" t="n">
         <v>98.7</v>
       </c>
-      <c r="IP2" t="n">
+      <c r="IQ2" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="IQ2" t="n">
+      <c r="IR2" t="n">
         <v>99.8</v>
       </c>
-      <c r="IR2" t="n">
+      <c r="IS2" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="IS2" t="n">
+      <c r="IT2" t="n">
         <v>100.2</v>
       </c>
-      <c r="IT2" t="n">
+      <c r="IU2" t="n">
         <v>100.9</v>
       </c>
-      <c r="IU2" t="n">
+      <c r="IV2" t="n">
         <v>101.4</v>
       </c>
-      <c r="IV2" t="n">
+      <c r="IW2" t="n">
         <v>102.8</v>
       </c>
-      <c r="IW2" t="n">
+      <c r="IX2" t="n">
         <v>103.5</v>
       </c>
-      <c r="IX2" t="n">
+      <c r="IY2" t="n">
         <v>103.6</v>
       </c>
-      <c r="IY2" t="n">
+      <c r="IZ2" t="n">
         <v>103.7</v>
       </c>
-      <c r="IZ2" t="n">
+      <c r="JA2" t="n">
         <v>103.9</v>
       </c>
-      <c r="JA2" t="n">
+      <c r="JB2" t="n">
         <v>104.5</v>
       </c>
-      <c r="JB2" t="n">
+      <c r="JC2" t="n">
         <v>102.9</v>
       </c>
-      <c r="JC2" t="n">
+      <c r="JD2" t="n">
         <v>102.5</v>
       </c>
-      <c r="JD2" t="n">
+      <c r="JE2" t="n">
         <v>102.6</v>
       </c>
-      <c r="JE2" t="n">
+      <c r="JF2" t="n">
         <v>101.9</v>
       </c>
-      <c r="JF2" t="n">
+      <c r="JG2" t="n">
         <v>101</v>
       </c>
-      <c r="JG2" t="n">
+      <c r="JH2" t="n">
         <v>100</v>
       </c>
-      <c r="JH2" t="n">
+      <c r="JI2" t="n">
         <v>99.2</v>
       </c>
-      <c r="JI2" t="n">
+      <c r="JJ2" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="JJ2" t="n">
+      <c r="JK2" t="n">
         <v>99.3</v>
       </c>
-      <c r="JK2" t="n">
+      <c r="JL2" t="n">
         <v>97.90000000000001</v>
       </c>
-      <c r="JL2" t="n">
+      <c r="JM2" t="n">
         <v>97.7</v>
       </c>
-      <c r="JM2" t="n">
+      <c r="JN2" t="n">
         <v>97.5</v>
       </c>
-      <c r="JN2" t="n">
+      <c r="JO2" t="n">
         <v>96.40000000000001</v>
       </c>
-      <c r="JO2" t="n">
+      <c r="JP2" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="JP2" t="n">
+      <c r="JQ2" t="n">
         <v>96.09999999999999</v>
       </c>
-      <c r="JQ2" t="n">
+      <c r="JR2" t="n">
         <v>95.40000000000001</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>95.09999999999999</v>
       </c>
       <c r="JS2" t="n">
         <v>95.09999999999999</v>
       </c>
       <c r="JT2" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="JU2" t="n">
         <v>96.2</v>
       </c>
-      <c r="JU2" t="n">
+      <c r="JV2" t="n">
         <v>94.59999999999999</v>
       </c>
-      <c r="JV2" t="n">
+      <c r="JW2" t="n">
         <v>94.3</v>
       </c>
-      <c r="JW2" t="n">
+      <c r="JX2" t="n">
         <v>95.8</v>
       </c>
-      <c r="JX2" t="n">
+      <c r="JY2" t="n">
         <v>94.5</v>
       </c>
-      <c r="JY2" t="n">
+      <c r="JZ2" t="n">
         <v>95</v>
       </c>
-      <c r="JZ2" t="n">
+      <c r="KA2" t="n">
         <v>95.09999999999999</v>
       </c>
-      <c r="KA2" t="n">
+      <c r="KB2" t="n">
         <v>95.5</v>
       </c>
-      <c r="KB2" t="n">
+      <c r="KC2" t="n">
         <v>96.3</v>
       </c>
-      <c r="KC2" t="n">
+      <c r="KD2" t="n">
         <v>96.8</v>
       </c>
-      <c r="KD2" t="n">
+      <c r="KE2" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="KE2" t="n">
+      <c r="KF2" t="n">
         <v>98.7</v>
       </c>
-      <c r="KF2" t="n">
+      <c r="KG2" t="n">
         <v>99.09999999999999</v>
       </c>
-      <c r="KG2" t="n">
+      <c r="KH2" t="n">
         <v>99.40000000000001</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>99.09999999999999</v>
       </c>
       <c r="KI2" t="n">
         <v>99.09999999999999</v>
@@ -3615,171 +3620,173 @@
         <v>99.09999999999999</v>
       </c>
       <c r="KK2" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="KL2" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="KL2" t="n">
+      <c r="KM2" t="n">
         <v>99.59999999999999</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>100.1</v>
       </c>
       <c r="KN2" t="n">
         <v>100.1</v>
       </c>
       <c r="KO2" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="KP2" t="n">
         <v>100.5</v>
       </c>
-      <c r="KP2" t="n">
+      <c r="KQ2" t="n">
         <v>100.4</v>
       </c>
-      <c r="KQ2" t="n">
+      <c r="KR2" t="n">
         <v>100.1</v>
       </c>
-      <c r="KR2" t="n">
+      <c r="KS2" t="n">
         <v>100.4</v>
       </c>
-      <c r="KS2" t="n">
+      <c r="KT2" t="n">
         <v>100</v>
       </c>
-      <c r="KT2" t="n">
+      <c r="KU2" t="n">
         <v>100.3</v>
       </c>
-      <c r="KU2" t="n">
+      <c r="KV2" t="n">
         <v>100.8</v>
       </c>
-      <c r="KV2" t="n">
+      <c r="KW2" t="n">
         <v>101.5</v>
       </c>
-      <c r="KW2" t="n">
+      <c r="KX2" t="n">
         <v>101.7</v>
       </c>
-      <c r="KX2" t="n">
+      <c r="KY2" t="n">
         <v>102.3</v>
       </c>
-      <c r="KY2" t="n">
+      <c r="KZ2" t="n">
         <v>102.7</v>
       </c>
-      <c r="KZ2" t="n">
+      <c r="LA2" t="n">
         <v>103</v>
       </c>
-      <c r="LA2" t="n">
+      <c r="LB2" t="n">
         <v>104.3</v>
       </c>
-      <c r="LB2" t="n">
+      <c r="LC2" t="n">
         <v>107.1</v>
       </c>
-      <c r="LC2" t="n">
+      <c r="LD2" t="n">
         <v>108.4</v>
       </c>
-      <c r="LD2" t="n">
+      <c r="LE2" t="n">
         <v>108.8</v>
       </c>
-      <c r="LE2" t="n">
+      <c r="LF2" t="n">
         <v>111.1</v>
       </c>
-      <c r="LF2" t="n">
+      <c r="LG2" t="n">
         <v>112.5</v>
-      </c>
-      <c r="LG2" t="n">
-        <v>112.9</v>
       </c>
       <c r="LH2" t="n">
         <v>112.9</v>
       </c>
       <c r="LI2" t="n">
+        <v>112.9</v>
+      </c>
+      <c r="LJ2" t="n">
         <v>113.5</v>
       </c>
-      <c r="LJ2" t="n">
+      <c r="LK2" t="n">
         <v>113.8</v>
       </c>
-      <c r="LK2" t="n">
+      <c r="LL2" t="n">
         <v>113.9</v>
       </c>
-      <c r="LL2" t="n">
+      <c r="LM2" t="n">
         <v>117.1</v>
       </c>
-      <c r="LM2" t="n">
+      <c r="LN2" t="n">
         <v>119.5</v>
       </c>
-      <c r="LN2" t="n">
+      <c r="LO2" t="n">
         <v>120.2</v>
       </c>
-      <c r="LO2" t="n">
+      <c r="LP2" t="n">
         <v>120.7</v>
-      </c>
-      <c r="LP2" t="n">
-        <v>119.9</v>
       </c>
       <c r="LQ2" t="n">
         <v>119.9</v>
       </c>
       <c r="LR2" t="n">
+        <v>119.9</v>
+      </c>
+      <c r="LS2" t="n">
         <v>118.2</v>
       </c>
-      <c r="LS2" t="n">
+      <c r="LT2" t="n">
         <v>118.5</v>
       </c>
-      <c r="LT2" t="n">
+      <c r="LU2" t="n">
         <v>118.1</v>
       </c>
-      <c r="LU2" t="n">
+      <c r="LV2" t="n">
         <v>120.1</v>
       </c>
-      <c r="LV2" t="n">
+      <c r="LW2" t="n">
         <v>119.1</v>
       </c>
-      <c r="LW2" t="n">
+      <c r="LX2" t="n">
         <v>120.2</v>
       </c>
-      <c r="LX2" t="n">
+      <c r="LY2" t="n">
         <v>119.6</v>
       </c>
-      <c r="LY2" t="n">
+      <c r="LZ2" t="n">
         <v>117.9</v>
       </c>
-      <c r="LZ2" t="n">
+      <c r="MA2" t="n">
         <v>116.5</v>
       </c>
-      <c r="MA2" t="n">
+      <c r="MB2" t="n">
         <v>118.6</v>
       </c>
-      <c r="MB2" t="n">
+      <c r="MC2" t="n">
         <v>122</v>
       </c>
-      <c r="MC2" t="n">
+      <c r="MD2" t="n">
         <v>122.5</v>
       </c>
-      <c r="MD2" t="n">
+      <c r="ME2" t="n">
         <v>124.1</v>
       </c>
-      <c r="ME2" t="n">
+      <c r="MF2" t="n">
         <v>124.6</v>
       </c>
-      <c r="MF2" t="n">
+      <c r="MG2" t="n">
         <v>125.9</v>
       </c>
-      <c r="MG2" t="n">
+      <c r="MH2" t="n">
         <v>125.7</v>
       </c>
-      <c r="MH2" t="n">
+      <c r="MI2" t="n">
         <v>125.3</v>
       </c>
-      <c r="MI2" t="n">
+      <c r="MJ2" t="n">
         <v>126</v>
       </c>
-      <c r="MJ2" t="n">
+      <c r="MK2" t="n">
         <v>122.3</v>
       </c>
-      <c r="MK2" t="n">
+      <c r="ML2" t="n">
         <v>121.3</v>
       </c>
-      <c r="ML2" t="n">
+      <c r="MM2" t="n">
         <v>118.2</v>
       </c>
-      <c r="MM2" t="n">
+      <c r="MN2" t="n">
         <v>117.9</v>
       </c>
-      <c r="MN2" t="inlineStr"/>
       <c r="MO2" t="inlineStr"/>
       <c r="MP2" t="inlineStr"/>
       <c r="MQ2" t="inlineStr"/>
@@ -3899,6 +3906,7 @@
       <c r="RA2" t="inlineStr"/>
       <c r="RB2" t="inlineStr"/>
       <c r="RC2" t="inlineStr"/>
+      <c r="RD2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3907,172 +3915,172 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>110.7</v>
+      </c>
+      <c r="C3" t="n">
         <v>111.4</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>111.8</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>113.4</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>117</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>117.9</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>114.2</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>112.7</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>112</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>111.8</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>112</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>109.1</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>105.8</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>102.3</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>100.5</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>99.5</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>98.2</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>97.3</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>97.2</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>97</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>96.5</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>95.8</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>94.90000000000001</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>95.5</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
         <v>97.59999999999999</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>99</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
         <v>98.8</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>97.5</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
         <v>98</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AG3" t="n">
         <v>98.7</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AH3" t="n">
         <v>99.3</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AI3" t="n">
         <v>99.7</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AJ3" t="n">
         <v>100.6</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AK3" t="n">
         <v>100.9</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AL3" t="n">
         <v>100.3</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>99.90000000000001</v>
       </c>
       <c r="AM3" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="AN3" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="AO3" t="n">
         <v>101</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AP3" t="n">
         <v>103.3</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AQ3" t="n">
         <v>104.2</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AR3" t="n">
         <v>104.6</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
         <v>105.2</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AT3" t="n">
         <v>106</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AU3" t="n">
         <v>106.1</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AV3" t="n">
         <v>105.4</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AW3" t="n">
         <v>104.5</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AX3" t="n">
         <v>104.1</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AY3" t="n">
         <v>104.8</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AZ3" t="n">
         <v>105.7</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="BA3" t="n">
         <v>106.4</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BB3" t="n">
         <v>107.5</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BC3" t="n">
         <v>109</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>109.1</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BE3" t="n">
         <v>108.3</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>107.3</v>
       </c>
       <c r="BF3" t="n">
         <v>107.3</v>
@@ -4081,55 +4089,55 @@
         <v>107.3</v>
       </c>
       <c r="BH3" t="n">
+        <v>107.3</v>
+      </c>
+      <c r="BI3" t="n">
         <v>108.4</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BJ3" t="n">
         <v>110.1</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BK3" t="n">
         <v>110.4</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BL3" t="n">
         <v>109.1</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BM3" t="n">
         <v>107.2</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BN3" t="n">
         <v>104.3</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BO3" t="n">
         <v>101.6</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BP3" t="n">
         <v>100.1</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BQ3" t="n">
         <v>99</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BR3" t="n">
         <v>97.7</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BS3" t="n">
         <v>96.5</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BT3" t="n">
         <v>96.3</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="BU3" t="n">
         <v>95.5</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="BV3" t="n">
         <v>94.3</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="BW3" t="n">
         <v>93.5</v>
       </c>
-      <c r="BW3" t="n">
+      <c r="BX3" t="n">
         <v>93.09999999999999</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>92.40000000000001</v>
       </c>
       <c r="BY3" t="n">
         <v>92.40000000000001</v>
@@ -4138,19 +4146,19 @@
         <v>92.40000000000001</v>
       </c>
       <c r="CA3" t="n">
-        <v>92.3</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="CB3" t="n">
         <v>92.3</v>
       </c>
       <c r="CC3" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="CD3" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="CD3" t="n">
+      <c r="CE3" t="n">
         <v>93.8</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>94.09999999999999</v>
       </c>
       <c r="CF3" t="n">
         <v>94.09999999999999</v>
@@ -4159,418 +4167,418 @@
         <v>94.09999999999999</v>
       </c>
       <c r="CH3" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="CI3" t="n">
         <v>93.8</v>
       </c>
-      <c r="CI3" t="n">
+      <c r="CJ3" t="n">
         <v>94.40000000000001</v>
       </c>
-      <c r="CJ3" t="n">
+      <c r="CK3" t="n">
         <v>95.7</v>
       </c>
-      <c r="CK3" t="n">
+      <c r="CL3" t="n">
         <v>96.5</v>
       </c>
-      <c r="CL3" t="n">
+      <c r="CM3" t="n">
         <v>97</v>
       </c>
-      <c r="CM3" t="n">
+      <c r="CN3" t="n">
         <v>97.59999999999999</v>
       </c>
-      <c r="CN3" t="n">
+      <c r="CO3" t="n">
         <v>98.3</v>
       </c>
-      <c r="CO3" t="n">
+      <c r="CP3" t="n">
         <v>98.8</v>
       </c>
-      <c r="CP3" t="n">
+      <c r="CQ3" t="n">
         <v>98.5</v>
       </c>
-      <c r="CQ3" t="n">
+      <c r="CR3" t="n">
         <v>98.09999999999999</v>
       </c>
-      <c r="CR3" t="n">
+      <c r="CS3" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="CS3" t="n">
+      <c r="CT3" t="n">
         <v>97</v>
       </c>
-      <c r="CT3" t="n">
+      <c r="CU3" t="n">
         <v>97.5</v>
       </c>
-      <c r="CU3" t="n">
+      <c r="CV3" t="n">
         <v>98</v>
       </c>
-      <c r="CV3" t="n">
+      <c r="CW3" t="n">
         <v>98.2</v>
       </c>
-      <c r="CW3" t="n">
+      <c r="CX3" t="n">
         <v>98.09999999999999</v>
       </c>
-      <c r="CX3" t="n">
+      <c r="CY3" t="n">
         <v>98</v>
       </c>
-      <c r="CY3" t="n">
+      <c r="CZ3" t="n">
         <v>98.3</v>
       </c>
-      <c r="CZ3" t="n">
+      <c r="DA3" t="n">
         <v>97.90000000000001</v>
       </c>
-      <c r="DA3" t="n">
+      <c r="DB3" t="n">
         <v>97</v>
       </c>
-      <c r="DB3" t="n">
+      <c r="DC3" t="n">
         <v>96.5</v>
       </c>
-      <c r="DC3" t="n">
+      <c r="DD3" t="n">
         <v>96.2</v>
       </c>
-      <c r="DD3" t="n">
+      <c r="DE3" t="n">
         <v>96.5</v>
       </c>
-      <c r="DE3" t="n">
+      <c r="DF3" t="n">
         <v>97.3</v>
-      </c>
-      <c r="DF3" t="n">
-        <v>97.59999999999999</v>
       </c>
       <c r="DG3" t="n">
         <v>97.59999999999999</v>
       </c>
       <c r="DH3" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="DI3" t="n">
         <v>97.3</v>
       </c>
-      <c r="DI3" t="n">
+      <c r="DJ3" t="n">
         <v>97</v>
       </c>
-      <c r="DJ3" t="n">
+      <c r="DK3" t="n">
         <v>96.3</v>
       </c>
-      <c r="DK3" t="n">
+      <c r="DL3" t="n">
         <v>95.3</v>
       </c>
-      <c r="DL3" t="n">
+      <c r="DM3" t="n">
         <v>95.40000000000001</v>
       </c>
-      <c r="DM3" t="n">
+      <c r="DN3" t="n">
         <v>96.09999999999999</v>
       </c>
-      <c r="DN3" t="n">
+      <c r="DO3" t="n">
         <v>97.09999999999999</v>
       </c>
-      <c r="DO3" t="n">
+      <c r="DP3" t="n">
         <v>97.90000000000001</v>
       </c>
-      <c r="DP3" t="n">
+      <c r="DQ3" t="n">
         <v>98.8</v>
       </c>
-      <c r="DQ3" t="n">
+      <c r="DR3" t="n">
         <v>99.2</v>
       </c>
-      <c r="DR3" t="n">
+      <c r="DS3" t="n">
         <v>99.5</v>
       </c>
-      <c r="DS3" t="n">
+      <c r="DT3" t="n">
         <v>100.3</v>
       </c>
-      <c r="DT3" t="n">
+      <c r="DU3" t="n">
         <v>101.4</v>
       </c>
-      <c r="DU3" t="n">
+      <c r="DV3" t="n">
         <v>102.6</v>
       </c>
-      <c r="DV3" t="n">
+      <c r="DW3" t="n">
         <v>105.2</v>
       </c>
-      <c r="DW3" t="n">
+      <c r="DX3" t="n">
         <v>107.1</v>
       </c>
-      <c r="DX3" t="n">
+      <c r="DY3" t="n">
         <v>108</v>
       </c>
-      <c r="DY3" t="n">
+      <c r="DZ3" t="n">
         <v>108.4</v>
       </c>
-      <c r="DZ3" t="n">
+      <c r="EA3" t="n">
         <v>107.9</v>
-      </c>
-      <c r="EA3" t="n">
-        <v>107.5</v>
       </c>
       <c r="EB3" t="n">
         <v>107.5</v>
       </c>
       <c r="EC3" t="n">
-        <v>108.2</v>
+        <v>107.5</v>
       </c>
       <c r="ED3" t="n">
         <v>108.2</v>
       </c>
       <c r="EE3" t="n">
+        <v>108.2</v>
+      </c>
+      <c r="EF3" t="n">
         <v>107.5</v>
       </c>
-      <c r="EF3" t="n">
+      <c r="EG3" t="n">
         <v>106.7</v>
       </c>
-      <c r="EG3" t="n">
+      <c r="EH3" t="n">
         <v>106.9</v>
       </c>
-      <c r="EH3" t="n">
+      <c r="EI3" t="n">
         <v>105.8</v>
       </c>
-      <c r="EI3" t="n">
+      <c r="EJ3" t="n">
         <v>104.9</v>
       </c>
-      <c r="EJ3" t="n">
+      <c r="EK3" t="n">
         <v>105</v>
       </c>
-      <c r="EK3" t="n">
+      <c r="EL3" t="n">
         <v>105.7</v>
       </c>
-      <c r="EL3" t="n">
+      <c r="EM3" t="n">
         <v>107.8</v>
       </c>
-      <c r="EM3" t="n">
+      <c r="EN3" t="n">
         <v>108.8</v>
       </c>
-      <c r="EN3" t="n">
+      <c r="EO3" t="n">
         <v>108.5</v>
       </c>
-      <c r="EO3" t="n">
+      <c r="EP3" t="n">
         <v>107.4</v>
       </c>
-      <c r="EP3" t="n">
+      <c r="EQ3" t="n">
         <v>106.8</v>
       </c>
-      <c r="EQ3" t="n">
+      <c r="ER3" t="n">
         <v>105.5</v>
       </c>
-      <c r="ER3" t="n">
+      <c r="ES3" t="n">
         <v>102</v>
       </c>
-      <c r="ES3" t="n">
+      <c r="ET3" t="n">
         <v>97.3</v>
       </c>
-      <c r="ET3" t="n">
+      <c r="EU3" t="n">
         <v>92.8</v>
       </c>
-      <c r="EU3" t="n">
+      <c r="EV3" t="n">
         <v>91.40000000000001</v>
       </c>
-      <c r="EV3" t="n">
+      <c r="EW3" t="n">
         <v>90.3</v>
       </c>
-      <c r="EW3" t="n">
+      <c r="EX3" t="n">
         <v>89.90000000000001</v>
       </c>
-      <c r="EX3" t="n">
+      <c r="EY3" t="n">
         <v>90.40000000000001</v>
       </c>
-      <c r="EY3" t="n">
+      <c r="EZ3" t="n">
         <v>91.2</v>
       </c>
-      <c r="EZ3" t="n">
+      <c r="FA3" t="n">
         <v>91.90000000000001</v>
       </c>
-      <c r="FA3" t="n">
+      <c r="FB3" t="n">
         <v>92.59999999999999</v>
       </c>
-      <c r="FB3" t="n">
+      <c r="FC3" t="n">
         <v>94.3</v>
       </c>
-      <c r="FC3" t="n">
+      <c r="FD3" t="n">
         <v>95.59999999999999</v>
       </c>
-      <c r="FD3" t="n">
+      <c r="FE3" t="n">
         <v>98.09999999999999</v>
       </c>
-      <c r="FE3" t="n">
+      <c r="FF3" t="n">
         <v>102</v>
       </c>
-      <c r="FF3" t="n">
+      <c r="FG3" t="n">
         <v>107.7</v>
       </c>
-      <c r="FG3" t="n">
+      <c r="FH3" t="n">
         <v>110.8</v>
       </c>
-      <c r="FH3" t="n">
+      <c r="FI3" t="n">
         <v>112</v>
       </c>
-      <c r="FI3" t="n">
+      <c r="FJ3" t="n">
         <v>111.7</v>
       </c>
-      <c r="FJ3" t="n">
+      <c r="FK3" t="n">
         <v>110.1</v>
       </c>
-      <c r="FK3" t="n">
+      <c r="FL3" t="n">
         <v>109.2</v>
       </c>
-      <c r="FL3" t="n">
+      <c r="FM3" t="n">
         <v>109</v>
       </c>
-      <c r="FM3" t="n">
+      <c r="FN3" t="n">
         <v>108.7</v>
       </c>
-      <c r="FN3" t="n">
+      <c r="FO3" t="n">
         <v>107.2</v>
       </c>
-      <c r="FO3" t="n">
+      <c r="FP3" t="n">
         <v>106.5</v>
       </c>
-      <c r="FP3" t="n">
+      <c r="FQ3" t="n">
         <v>106</v>
       </c>
-      <c r="FQ3" t="n">
+      <c r="FR3" t="n">
         <v>104.8</v>
       </c>
-      <c r="FR3" t="n">
+      <c r="FS3" t="n">
         <v>103.1</v>
       </c>
-      <c r="FS3" t="n">
+      <c r="FT3" t="n">
         <v>102.5</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>102.2</v>
       </c>
       <c r="FU3" t="n">
         <v>102.2</v>
       </c>
       <c r="FV3" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="FW3" t="n">
         <v>102.5</v>
       </c>
-      <c r="FW3" t="n">
+      <c r="FX3" t="n">
         <v>102.9</v>
       </c>
-      <c r="FX3" t="n">
+      <c r="FY3" t="n">
         <v>103.1</v>
       </c>
-      <c r="FY3" t="n">
+      <c r="FZ3" t="n">
         <v>102.9</v>
       </c>
-      <c r="FZ3" t="n">
+      <c r="GA3" t="n">
         <v>102.8</v>
       </c>
-      <c r="GA3" t="n">
+      <c r="GB3" t="n">
         <v>103.8</v>
       </c>
-      <c r="GB3" t="n">
+      <c r="GC3" t="n">
         <v>103.6</v>
       </c>
-      <c r="GC3" t="n">
+      <c r="GD3" t="n">
         <v>103.4</v>
       </c>
-      <c r="GD3" t="n">
+      <c r="GE3" t="n">
         <v>103.8</v>
       </c>
-      <c r="GE3" t="n">
+      <c r="GF3" t="n">
         <v>104.4</v>
       </c>
-      <c r="GF3" t="n">
+      <c r="GG3" t="n">
         <v>104.5</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>104.8</v>
       </c>
       <c r="GH3" t="n">
         <v>104.8</v>
       </c>
       <c r="GI3" t="n">
+        <v>104.8</v>
+      </c>
+      <c r="GJ3" t="n">
         <v>103.4</v>
       </c>
-      <c r="GJ3" t="n">
+      <c r="GK3" t="n">
         <v>102.6</v>
       </c>
-      <c r="GK3" t="n">
+      <c r="GL3" t="n">
         <v>103.5</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>104.2</v>
       </c>
       <c r="GM3" t="n">
         <v>104.2</v>
       </c>
       <c r="GN3" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="GO3" t="n">
         <v>104.6</v>
       </c>
-      <c r="GO3" t="n">
+      <c r="GP3" t="n">
         <v>104.5</v>
       </c>
-      <c r="GP3" t="n">
+      <c r="GQ3" t="n">
         <v>105.6</v>
       </c>
-      <c r="GQ3" t="n">
+      <c r="GR3" t="n">
         <v>106.2</v>
       </c>
-      <c r="GR3" t="n">
+      <c r="GS3" t="n">
         <v>107.3</v>
       </c>
-      <c r="GS3" t="n">
+      <c r="GT3" t="n">
         <v>107.1</v>
       </c>
-      <c r="GT3" t="n">
+      <c r="GU3" t="n">
         <v>107.2</v>
       </c>
-      <c r="GU3" t="n">
+      <c r="GV3" t="n">
         <v>108.2</v>
       </c>
-      <c r="GV3" t="n">
+      <c r="GW3" t="n">
         <v>107.9</v>
       </c>
-      <c r="GW3" t="n">
+      <c r="GX3" t="n">
         <v>107.6</v>
       </c>
-      <c r="GX3" t="n">
+      <c r="GY3" t="n">
         <v>107.1</v>
       </c>
-      <c r="GY3" t="n">
+      <c r="GZ3" t="n">
         <v>107.8</v>
       </c>
-      <c r="GZ3" t="n">
+      <c r="HA3" t="n">
         <v>109.4</v>
       </c>
-      <c r="HA3" t="n">
+      <c r="HB3" t="n">
         <v>110.7</v>
       </c>
-      <c r="HB3" t="n">
+      <c r="HC3" t="n">
         <v>110.9</v>
       </c>
-      <c r="HC3" t="n">
+      <c r="HD3" t="n">
         <v>110.2</v>
       </c>
-      <c r="HD3" t="n">
+      <c r="HE3" t="n">
         <v>108.7</v>
       </c>
-      <c r="HE3" t="n">
+      <c r="HF3" t="n">
         <v>108.2</v>
       </c>
-      <c r="HF3" t="n">
+      <c r="HG3" t="n">
         <v>108.1</v>
       </c>
-      <c r="HG3" t="n">
+      <c r="HH3" t="n">
         <v>107.1</v>
       </c>
-      <c r="HH3" t="n">
+      <c r="HI3" t="n">
         <v>106.2</v>
       </c>
-      <c r="HI3" t="n">
+      <c r="HJ3" t="n">
         <v>105.1</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>104.6</v>
       </c>
       <c r="HK3" t="n">
         <v>104.6</v>
       </c>
       <c r="HL3" t="n">
+        <v>104.6</v>
+      </c>
+      <c r="HM3" t="n">
         <v>104.1</v>
       </c>
-      <c r="HM3" t="n">
+      <c r="HN3" t="n">
         <v>102.7</v>
       </c>
-      <c r="HN3" t="n">
+      <c r="HO3" t="n">
         <v>102.1</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>102.4</v>
       </c>
       <c r="HP3" t="n">
         <v>102.4</v>
@@ -4579,249 +4587,251 @@
         <v>102.4</v>
       </c>
       <c r="HR3" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="HS3" t="n">
         <v>102.3</v>
       </c>
-      <c r="HS3" t="n">
+      <c r="HT3" t="n">
         <v>103.2</v>
       </c>
-      <c r="HT3" t="n">
+      <c r="HU3" t="n">
         <v>105.3</v>
       </c>
-      <c r="HU3" t="n">
+      <c r="HV3" t="n">
         <v>106.7</v>
       </c>
-      <c r="HV3" t="n">
+      <c r="HW3" t="n">
         <v>105.9</v>
       </c>
-      <c r="HW3" t="n">
+      <c r="HX3" t="n">
         <v>103.8</v>
       </c>
-      <c r="HX3" t="n">
+      <c r="HY3" t="n">
         <v>101.3</v>
       </c>
-      <c r="HY3" t="n">
+      <c r="HZ3" t="n">
         <v>100.2</v>
       </c>
-      <c r="HZ3" t="n">
+      <c r="IA3" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="IA3" t="n">
+      <c r="IB3" t="n">
         <v>98.8</v>
       </c>
-      <c r="IB3" t="n">
+      <c r="IC3" t="n">
         <v>98.3</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>97.40000000000001</v>
       </c>
       <c r="ID3" t="n">
         <v>97.40000000000001</v>
       </c>
       <c r="IE3" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="IF3" t="n">
         <v>97.3</v>
       </c>
-      <c r="IF3" t="n">
+      <c r="IG3" t="n">
         <v>96.59999999999999</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>95.40000000000001</v>
       </c>
       <c r="IH3" t="n">
         <v>95.40000000000001</v>
       </c>
       <c r="II3" t="n">
-        <v>95.2</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="IJ3" t="n">
         <v>95.2</v>
       </c>
       <c r="IK3" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="IL3" t="n">
         <v>95.5</v>
       </c>
-      <c r="IL3" t="n">
+      <c r="IM3" t="n">
         <v>96.3</v>
       </c>
-      <c r="IM3" t="n">
+      <c r="IN3" t="n">
         <v>96.5</v>
       </c>
-      <c r="IN3" t="n">
+      <c r="IO3" t="n">
         <v>97.8</v>
       </c>
-      <c r="IO3" t="n">
+      <c r="IP3" t="n">
         <v>98.7</v>
       </c>
-      <c r="IP3" t="n">
+      <c r="IQ3" t="n">
         <v>99.8</v>
       </c>
-      <c r="IQ3" t="n">
+      <c r="IR3" t="n">
         <v>100.1</v>
       </c>
-      <c r="IR3" t="n">
+      <c r="IS3" t="n">
         <v>100.4</v>
       </c>
-      <c r="IS3" t="n">
+      <c r="IT3" t="n">
         <v>101</v>
       </c>
-      <c r="IT3" t="n">
+      <c r="IU3" t="n">
         <v>101.8</v>
       </c>
-      <c r="IU3" t="n">
+      <c r="IV3" t="n">
         <v>102.7</v>
       </c>
-      <c r="IV3" t="n">
+      <c r="IW3" t="n">
         <v>104.6</v>
       </c>
-      <c r="IW3" t="n">
+      <c r="IX3" t="n">
         <v>105.8</v>
       </c>
-      <c r="IX3" t="n">
+      <c r="IY3" t="n">
         <v>106.1</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>106.4</v>
       </c>
       <c r="IZ3" t="n">
         <v>106.4</v>
       </c>
       <c r="JA3" t="n">
+        <v>106.4</v>
+      </c>
+      <c r="JB3" t="n">
         <v>107.2</v>
       </c>
-      <c r="JB3" t="n">
+      <c r="JC3" t="n">
         <v>105.5</v>
       </c>
-      <c r="JC3" t="n">
+      <c r="JD3" t="n">
         <v>104.9</v>
       </c>
-      <c r="JD3" t="n">
+      <c r="JE3" t="n">
         <v>105.3</v>
       </c>
-      <c r="JE3" t="n">
+      <c r="JF3" t="n">
         <v>104.4</v>
       </c>
-      <c r="JF3" t="n">
+      <c r="JG3" t="n">
         <v>103.1</v>
       </c>
-      <c r="JG3" t="n">
+      <c r="JH3" t="n">
         <v>101.9</v>
       </c>
-      <c r="JH3" t="n">
+      <c r="JI3" t="n">
         <v>100.9</v>
       </c>
-      <c r="JI3" t="n">
+      <c r="JJ3" t="n">
         <v>100.7</v>
       </c>
-      <c r="JJ3" t="n">
+      <c r="JK3" t="n">
         <v>100.5</v>
       </c>
-      <c r="JK3" t="n">
+      <c r="JL3" t="n">
         <v>99</v>
       </c>
-      <c r="JL3" t="n">
+      <c r="JM3" t="n">
         <v>98.59999999999999</v>
       </c>
-      <c r="JM3" t="n">
+      <c r="JN3" t="n">
         <v>98</v>
       </c>
-      <c r="JN3" t="n">
+      <c r="JO3" t="n">
         <v>97</v>
       </c>
-      <c r="JO3" t="n">
+      <c r="JP3" t="n">
         <v>96.7</v>
       </c>
-      <c r="JP3" t="n">
+      <c r="JQ3" t="n">
         <v>96.3</v>
       </c>
-      <c r="JQ3" t="n">
+      <c r="JR3" t="n">
         <v>95.3</v>
       </c>
-      <c r="JR3" t="n">
+      <c r="JS3" t="n">
         <v>94.7</v>
       </c>
-      <c r="JS3" t="n">
+      <c r="JT3" t="n">
         <v>94.8</v>
-      </c>
-      <c r="JT3" t="n">
-        <v>93.8</v>
       </c>
       <c r="JU3" t="n">
         <v>93.8</v>
       </c>
       <c r="JV3" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="JW3" t="n">
         <v>93.59999999999999</v>
       </c>
-      <c r="JW3" t="n">
+      <c r="JX3" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="JX3" t="n">
+      <c r="JY3" t="n">
         <v>94</v>
       </c>
-      <c r="JY3" t="n">
+      <c r="JZ3" t="n">
         <v>94.5</v>
-      </c>
-      <c r="JZ3" t="n">
-        <v>94.59999999999999</v>
       </c>
       <c r="KA3" t="n">
         <v>94.59999999999999</v>
       </c>
       <c r="KB3" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="KC3" t="n">
         <v>96.2</v>
       </c>
-      <c r="KC3" t="n">
+      <c r="KD3" t="n">
         <v>96.5</v>
       </c>
-      <c r="KD3" t="n">
+      <c r="KE3" t="n">
         <v>97.3</v>
       </c>
-      <c r="KE3" t="n">
+      <c r="KF3" t="n">
         <v>98.40000000000001</v>
       </c>
-      <c r="KF3" t="n">
+      <c r="KG3" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="KG3" t="n">
+      <c r="KH3" t="n">
         <v>99.7</v>
-      </c>
-      <c r="KH3" t="n">
-        <v>99.3</v>
       </c>
       <c r="KI3" t="n">
         <v>99.3</v>
       </c>
       <c r="KJ3" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="KK3" t="n">
         <v>99.2</v>
       </c>
-      <c r="KK3" t="n">
+      <c r="KL3" t="n">
         <v>99.8</v>
       </c>
-      <c r="KL3" t="n">
+      <c r="KM3" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="KM3" t="n">
+      <c r="KN3" t="n">
         <v>100.2</v>
       </c>
-      <c r="KN3" t="n">
+      <c r="KO3" t="n">
         <v>100.3</v>
       </c>
-      <c r="KO3" t="n">
+      <c r="KP3" t="n">
         <v>100.7</v>
       </c>
-      <c r="KP3" t="n">
+      <c r="KQ3" t="n">
         <v>100.9</v>
       </c>
-      <c r="KQ3" t="n">
+      <c r="KR3" t="n">
         <v>100.6</v>
       </c>
-      <c r="KR3" t="n">
+      <c r="KS3" t="n">
         <v>101.1</v>
       </c>
-      <c r="KS3" t="n">
+      <c r="KT3" t="n">
         <v>100.7</v>
       </c>
-      <c r="KT3" t="n">
+      <c r="KU3" t="n">
         <v>100.8</v>
       </c>
-      <c r="KU3" t="inlineStr"/>
       <c r="KV3" t="inlineStr"/>
       <c r="KW3" t="inlineStr"/>
       <c r="KX3" t="inlineStr"/>
@@ -4986,6 +4996,7 @@
       <c r="RA3" t="inlineStr"/>
       <c r="RB3" t="inlineStr"/>
       <c r="RC3" t="inlineStr"/>
+      <c r="RD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -4997,22 +5008,22 @@
         <v>100.9</v>
       </c>
       <c r="C4" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="D4" t="n">
         <v>100.8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>101</v>
       </c>
       <c r="E4" t="n">
         <v>101</v>
       </c>
       <c r="F4" t="n">
+        <v>101</v>
+      </c>
+      <c r="G4" t="n">
         <v>100.6</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>100.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100.3</v>
       </c>
       <c r="I4" t="n">
         <v>100.3</v>
@@ -5021,76 +5032,76 @@
         <v>100.3</v>
       </c>
       <c r="K4" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="L4" t="n">
         <v>100.5</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>100.3</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>100.1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>99.8</v>
       </c>
       <c r="O4" t="n">
         <v>99.8</v>
       </c>
       <c r="P4" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="Q4" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>99.2</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>99.5</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>100.6</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>100.7</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>100.6</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>100.5</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>100.9</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
         <v>101.2</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AA4" t="n">
         <v>101.4</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>101.3</v>
       </c>
       <c r="AB4" t="n">
         <v>101.3</v>
       </c>
       <c r="AC4" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="AD4" t="n">
         <v>101.6</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
         <v>101.4</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
         <v>101.1</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AG4" t="n">
         <v>100.7</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AH4" t="n">
         <v>100.8</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>100.9</v>
       </c>
       <c r="AI4" t="n">
         <v>100.9</v>
@@ -5099,82 +5110,82 @@
         <v>100.9</v>
       </c>
       <c r="AK4" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="AL4" t="n">
         <v>100.5</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AM4" t="n">
         <v>100.4</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AN4" t="n">
         <v>100.6</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AO4" t="n">
         <v>100.7</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AP4" t="n">
         <v>100.8</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AQ4" t="n">
         <v>100.7</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AR4" t="n">
         <v>100.8</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AS4" t="n">
         <v>100.7</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AT4" t="n">
         <v>100.6</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AU4" t="n">
         <v>100.4</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AV4" t="n">
         <v>100.3</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AW4" t="n">
         <v>100.1</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AX4" t="n">
         <v>100.2</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>100.3</v>
       </c>
       <c r="AY4" t="n">
         <v>100.3</v>
       </c>
       <c r="AZ4" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="BA4" t="n">
         <v>100.5</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BB4" t="n">
         <v>100.6</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BC4" t="n">
         <v>100.8</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>100.7</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BE4" t="n">
         <v>100.6</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>100.5</v>
       </c>
       <c r="BF4" t="n">
         <v>100.5</v>
       </c>
       <c r="BG4" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="BH4" t="n">
         <v>100.6</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>100.7</v>
       </c>
       <c r="BI4" t="n">
         <v>100.7</v>
       </c>
       <c r="BJ4" t="n">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="BK4" t="n">
         <v>100.8</v>
@@ -5183,13 +5194,13 @@
         <v>100.8</v>
       </c>
       <c r="BM4" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="BN4" t="n">
         <v>100.4</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BO4" t="n">
         <v>100.1</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>100</v>
       </c>
       <c r="BP4" t="n">
         <v>100</v>
@@ -5198,10 +5209,10 @@
         <v>100</v>
       </c>
       <c r="BR4" t="n">
+        <v>100</v>
+      </c>
+      <c r="BS4" t="n">
         <v>99.90000000000001</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>99.8</v>
       </c>
       <c r="BT4" t="n">
         <v>99.8</v>
@@ -5210,13 +5221,13 @@
         <v>99.8</v>
       </c>
       <c r="BV4" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="BW4" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="BW4" t="n">
+      <c r="BX4" t="n">
         <v>99.5</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>99.59999999999999</v>
       </c>
       <c r="BY4" t="n">
         <v>99.59999999999999</v>
@@ -5225,7 +5236,7 @@
         <v>99.59999999999999</v>
       </c>
       <c r="CA4" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="CB4" t="n">
         <v>99.7</v>
@@ -5234,73 +5245,73 @@
         <v>99.7</v>
       </c>
       <c r="CD4" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="CE4" t="n">
         <v>99.8</v>
       </c>
-      <c r="CE4" t="n">
+      <c r="CF4" t="n">
         <v>99.7</v>
       </c>
-      <c r="CF4" t="n">
+      <c r="CG4" t="n">
         <v>99.8</v>
-      </c>
-      <c r="CG4" t="n">
-        <v>99.90000000000001</v>
       </c>
       <c r="CH4" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="CI4" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="CJ4" t="n">
         <v>99.8</v>
       </c>
       <c r="CK4" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="CL4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="CL4" t="n">
+      <c r="CM4" t="n">
         <v>100</v>
       </c>
-      <c r="CM4" t="n">
+      <c r="CN4" t="n">
         <v>100.1</v>
       </c>
-      <c r="CN4" t="n">
+      <c r="CO4" t="n">
         <v>100.2</v>
       </c>
-      <c r="CO4" t="n">
+      <c r="CP4" t="n">
         <v>100.3</v>
-      </c>
-      <c r="CP4" t="n">
-        <v>100.2</v>
       </c>
       <c r="CQ4" t="n">
         <v>100.2</v>
       </c>
       <c r="CR4" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="CS4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="CS4" t="n">
+      <c r="CT4" t="n">
         <v>99.8</v>
-      </c>
-      <c r="CT4" t="n">
-        <v>99.7</v>
       </c>
       <c r="CU4" t="n">
         <v>99.7</v>
       </c>
       <c r="CV4" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="CW4" t="n">
         <v>100</v>
       </c>
-      <c r="CW4" t="n">
+      <c r="CX4" t="n">
         <v>100.1</v>
       </c>
-      <c r="CX4" t="n">
+      <c r="CY4" t="n">
         <v>100</v>
       </c>
-      <c r="CY4" t="n">
+      <c r="CZ4" t="n">
         <v>99.90000000000001</v>
-      </c>
-      <c r="CZ4" t="n">
-        <v>100</v>
       </c>
       <c r="DA4" t="n">
         <v>100</v>
@@ -5309,76 +5320,76 @@
         <v>100</v>
       </c>
       <c r="DC4" t="n">
+        <v>100</v>
+      </c>
+      <c r="DD4" t="n">
         <v>100.1</v>
       </c>
-      <c r="DD4" t="n">
+      <c r="DE4" t="n">
         <v>100.3</v>
       </c>
-      <c r="DE4" t="n">
+      <c r="DF4" t="n">
         <v>100.5</v>
-      </c>
-      <c r="DF4" t="n">
-        <v>100.7</v>
       </c>
       <c r="DG4" t="n">
         <v>100.7</v>
       </c>
       <c r="DH4" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="DI4" t="n">
         <v>100.5</v>
       </c>
-      <c r="DI4" t="n">
+      <c r="DJ4" t="n">
         <v>100.3</v>
       </c>
-      <c r="DJ4" t="n">
+      <c r="DK4" t="n">
         <v>100.2</v>
       </c>
-      <c r="DK4" t="n">
+      <c r="DL4" t="n">
         <v>100.1</v>
       </c>
-      <c r="DL4" t="n">
+      <c r="DM4" t="n">
         <v>100.2</v>
       </c>
-      <c r="DM4" t="n">
+      <c r="DN4" t="n">
         <v>100.4</v>
       </c>
-      <c r="DN4" t="n">
+      <c r="DO4" t="n">
         <v>100.7</v>
       </c>
-      <c r="DO4" t="n">
+      <c r="DP4" t="n">
         <v>100.9</v>
       </c>
-      <c r="DP4" t="n">
+      <c r="DQ4" t="n">
         <v>101.1</v>
       </c>
-      <c r="DQ4" t="n">
+      <c r="DR4" t="n">
         <v>101.4</v>
       </c>
-      <c r="DR4" t="n">
+      <c r="DS4" t="n">
         <v>101.7</v>
       </c>
-      <c r="DS4" t="n">
+      <c r="DT4" t="n">
         <v>102.1</v>
       </c>
-      <c r="DT4" t="n">
+      <c r="DU4" t="n">
         <v>102.5</v>
       </c>
-      <c r="DU4" t="n">
+      <c r="DV4" t="n">
         <v>103.1</v>
       </c>
-      <c r="DV4" t="n">
+      <c r="DW4" t="n">
         <v>104.2</v>
       </c>
-      <c r="DW4" t="n">
+      <c r="DX4" t="n">
         <v>104.6</v>
-      </c>
-      <c r="DX4" t="n">
-        <v>104.8</v>
       </c>
       <c r="DY4" t="n">
         <v>104.8</v>
       </c>
       <c r="DZ4" t="n">
-        <v>104.6</v>
+        <v>104.8</v>
       </c>
       <c r="EA4" t="n">
         <v>104.6</v>
@@ -5387,196 +5398,196 @@
         <v>104.6</v>
       </c>
       <c r="EC4" t="n">
+        <v>104.6</v>
+      </c>
+      <c r="ED4" t="n">
         <v>104.4</v>
       </c>
-      <c r="ED4" t="n">
+      <c r="EE4" t="n">
         <v>104.1</v>
       </c>
-      <c r="EE4" t="n">
+      <c r="EF4" t="n">
         <v>103.8</v>
       </c>
-      <c r="EF4" t="n">
+      <c r="EG4" t="n">
         <v>103.5</v>
       </c>
-      <c r="EG4" t="n">
+      <c r="EH4" t="n">
         <v>103.3</v>
       </c>
-      <c r="EH4" t="n">
+      <c r="EI4" t="n">
         <v>102.6</v>
       </c>
-      <c r="EI4" t="n">
+      <c r="EJ4" t="n">
         <v>102.5</v>
       </c>
-      <c r="EJ4" t="n">
+      <c r="EK4" t="n">
         <v>102.2</v>
       </c>
-      <c r="EK4" t="n">
+      <c r="EL4" t="n">
         <v>102.1</v>
       </c>
-      <c r="EL4" t="n">
+      <c r="EM4" t="n">
         <v>102</v>
       </c>
-      <c r="EM4" t="n">
+      <c r="EN4" t="n">
         <v>101.8</v>
       </c>
-      <c r="EN4" t="n">
+      <c r="EO4" t="n">
         <v>101.4</v>
       </c>
-      <c r="EO4" t="n">
+      <c r="EP4" t="n">
         <v>101.2</v>
       </c>
-      <c r="EP4" t="n">
+      <c r="EQ4" t="n">
         <v>101</v>
       </c>
-      <c r="EQ4" t="n">
+      <c r="ER4" t="n">
         <v>100.6</v>
       </c>
-      <c r="ER4" t="n">
+      <c r="ES4" t="n">
         <v>100.8</v>
       </c>
-      <c r="ES4" t="n">
+      <c r="ET4" t="n">
         <v>99.8</v>
       </c>
-      <c r="ET4" t="n">
+      <c r="EU4" t="n">
         <v>98.59999999999999</v>
       </c>
-      <c r="EU4" t="n">
+      <c r="EV4" t="n">
         <v>98.2</v>
       </c>
-      <c r="EV4" t="n">
+      <c r="EW4" t="n">
         <v>98.09999999999999</v>
       </c>
-      <c r="EW4" t="n">
+      <c r="EX4" t="n">
         <v>97.7</v>
       </c>
-      <c r="EX4" t="n">
+      <c r="EY4" t="n">
         <v>97.90000000000001</v>
       </c>
-      <c r="EY4" t="n">
+      <c r="EZ4" t="n">
         <v>98.09999999999999</v>
       </c>
-      <c r="EZ4" t="n">
+      <c r="FA4" t="n">
         <v>98.3</v>
       </c>
-      <c r="FA4" t="n">
+      <c r="FB4" t="n">
         <v>98.59999999999999</v>
       </c>
-      <c r="FB4" t="n">
+      <c r="FC4" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="FC4" t="n">
+      <c r="FD4" t="n">
         <v>100.1</v>
       </c>
-      <c r="FD4" t="n">
+      <c r="FE4" t="n">
         <v>101.2</v>
       </c>
-      <c r="FE4" t="n">
+      <c r="FF4" t="n">
         <v>102.1</v>
       </c>
-      <c r="FF4" t="n">
+      <c r="FG4" t="n">
         <v>103.1</v>
       </c>
-      <c r="FG4" t="n">
+      <c r="FH4" t="n">
         <v>103.7</v>
       </c>
-      <c r="FH4" t="n">
+      <c r="FI4" t="n">
         <v>104</v>
       </c>
-      <c r="FI4" t="n">
+      <c r="FJ4" t="n">
         <v>104.6</v>
       </c>
-      <c r="FJ4" t="n">
+      <c r="FK4" t="n">
         <v>104.8</v>
       </c>
-      <c r="FK4" t="n">
+      <c r="FL4" t="n">
         <v>105.1</v>
       </c>
-      <c r="FL4" t="n">
+      <c r="FM4" t="n">
         <v>105.4</v>
       </c>
-      <c r="FM4" t="n">
+      <c r="FN4" t="n">
         <v>105.5</v>
       </c>
-      <c r="FN4" t="n">
+      <c r="FO4" t="n">
         <v>104.9</v>
       </c>
-      <c r="FO4" t="n">
+      <c r="FP4" t="n">
         <v>104.6</v>
-      </c>
-      <c r="FP4" t="n">
-        <v>103.7</v>
       </c>
       <c r="FQ4" t="n">
         <v>103.7</v>
       </c>
       <c r="FR4" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="FS4" t="n">
         <v>103.5</v>
       </c>
-      <c r="FS4" t="n">
+      <c r="FT4" t="n">
         <v>103.3</v>
       </c>
-      <c r="FT4" t="n">
+      <c r="FU4" t="n">
         <v>103.5</v>
       </c>
-      <c r="FU4" t="n">
+      <c r="FV4" t="n">
         <v>103.1</v>
       </c>
-      <c r="FV4" t="n">
+      <c r="FW4" t="n">
         <v>102.5</v>
       </c>
-      <c r="FW4" t="n">
+      <c r="FX4" t="n">
         <v>102.4</v>
       </c>
-      <c r="FX4" t="n">
+      <c r="FY4" t="n">
         <v>102.1</v>
-      </c>
-      <c r="FY4" t="n">
-        <v>101.9</v>
       </c>
       <c r="FZ4" t="n">
         <v>101.9</v>
       </c>
       <c r="GA4" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="GB4" t="n">
         <v>101.8</v>
       </c>
-      <c r="GB4" t="n">
+      <c r="GC4" t="n">
         <v>101.5</v>
       </c>
-      <c r="GC4" t="n">
+      <c r="GD4" t="n">
         <v>101</v>
-      </c>
-      <c r="GD4" t="n">
-        <v>100.6</v>
       </c>
       <c r="GE4" t="n">
         <v>100.6</v>
       </c>
       <c r="GF4" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="GG4" t="n">
         <v>100.3</v>
       </c>
-      <c r="GG4" t="n">
+      <c r="GH4" t="n">
         <v>100</v>
       </c>
-      <c r="GH4" t="n">
+      <c r="GI4" t="n">
         <v>99.8</v>
-      </c>
-      <c r="GI4" t="n">
-        <v>99.59999999999999</v>
       </c>
       <c r="GJ4" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="GK4" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="GL4" t="n">
         <v>99.7</v>
       </c>
-      <c r="GL4" t="n">
+      <c r="GM4" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="GM4" t="n">
+      <c r="GN4" t="n">
         <v>99.7</v>
-      </c>
-      <c r="GN4" t="n">
-        <v>99.5</v>
       </c>
       <c r="GO4" t="n">
         <v>99.5</v>
@@ -5585,115 +5596,115 @@
         <v>99.5</v>
       </c>
       <c r="GQ4" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="GR4" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="GR4" t="n">
+      <c r="GS4" t="n">
         <v>99.7</v>
       </c>
-      <c r="GS4" t="n">
+      <c r="GT4" t="n">
         <v>99.8</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>99.7</v>
       </c>
       <c r="GU4" t="n">
         <v>99.7</v>
       </c>
       <c r="GV4" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="GW4" t="n">
         <v>99.8</v>
       </c>
-      <c r="GW4" t="n">
+      <c r="GX4" t="n">
         <v>100.2</v>
       </c>
-      <c r="GX4" t="n">
+      <c r="GY4" t="n">
         <v>100.4</v>
       </c>
-      <c r="GY4" t="n">
+      <c r="GZ4" t="n">
         <v>100.3</v>
       </c>
-      <c r="GZ4" t="n">
+      <c r="HA4" t="n">
         <v>100.5</v>
       </c>
-      <c r="HA4" t="n">
+      <c r="HB4" t="n">
         <v>100.9</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>101.7</v>
       </c>
       <c r="HC4" t="n">
         <v>101.7</v>
       </c>
       <c r="HD4" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="HE4" t="n">
         <v>101.6</v>
       </c>
-      <c r="HE4" t="n">
+      <c r="HF4" t="n">
         <v>101.4</v>
       </c>
-      <c r="HF4" t="n">
+      <c r="HG4" t="n">
         <v>101.8</v>
       </c>
-      <c r="HG4" t="n">
+      <c r="HH4" t="n">
         <v>101.7</v>
       </c>
-      <c r="HH4" t="n">
+      <c r="HI4" t="n">
         <v>101.8</v>
       </c>
-      <c r="HI4" t="n">
+      <c r="HJ4" t="n">
         <v>101</v>
       </c>
-      <c r="HJ4" t="n">
+      <c r="HK4" t="n">
         <v>100.5</v>
       </c>
-      <c r="HK4" t="n">
+      <c r="HL4" t="n">
         <v>100.3</v>
       </c>
-      <c r="HL4" t="n">
+      <c r="HM4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="HM4" t="n">
+      <c r="HN4" t="n">
         <v>99.7</v>
       </c>
-      <c r="HN4" t="n">
+      <c r="HO4" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="HO4" t="n">
+      <c r="HP4" t="n">
         <v>98.7</v>
       </c>
-      <c r="HP4" t="n">
+      <c r="HQ4" t="n">
         <v>98.59999999999999</v>
       </c>
-      <c r="HQ4" t="n">
+      <c r="HR4" t="n">
         <v>98.7</v>
       </c>
-      <c r="HR4" t="n">
+      <c r="HS4" t="n">
         <v>98.8</v>
       </c>
-      <c r="HS4" t="n">
+      <c r="HT4" t="n">
         <v>98.7</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>98.8</v>
       </c>
       <c r="HU4" t="n">
         <v>98.8</v>
       </c>
       <c r="HV4" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="HW4" t="n">
         <v>98.7</v>
       </c>
-      <c r="HW4" t="n">
+      <c r="HX4" t="n">
         <v>98.40000000000001</v>
       </c>
-      <c r="HX4" t="n">
+      <c r="HY4" t="n">
         <v>98.3</v>
       </c>
-      <c r="HY4" t="n">
+      <c r="HZ4" t="n">
         <v>98</v>
       </c>
-      <c r="HZ4" t="n">
+      <c r="IA4" t="n">
         <v>98.09999999999999</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>98.2</v>
       </c>
       <c r="IB4" t="n">
         <v>98.2</v>
@@ -5702,213 +5713,215 @@
         <v>98.2</v>
       </c>
       <c r="ID4" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="IE4" t="n">
         <v>97.8</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>97.7</v>
       </c>
       <c r="IF4" t="n">
         <v>97.7</v>
       </c>
       <c r="IG4" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="IH4" t="n">
         <v>97.3</v>
       </c>
-      <c r="IH4" t="n">
+      <c r="II4" t="n">
         <v>97.2</v>
       </c>
-      <c r="II4" t="n">
+      <c r="IJ4" t="n">
         <v>97.8</v>
       </c>
-      <c r="IJ4" t="n">
+      <c r="IK4" t="n">
         <v>97.90000000000001</v>
       </c>
-      <c r="IK4" t="n">
+      <c r="IL4" t="n">
         <v>98.2</v>
       </c>
-      <c r="IL4" t="n">
+      <c r="IM4" t="n">
         <v>98.59999999999999</v>
       </c>
-      <c r="IM4" t="n">
+      <c r="IN4" t="n">
         <v>98.5</v>
       </c>
-      <c r="IN4" t="n">
+      <c r="IO4" t="n">
         <v>98.40000000000001</v>
       </c>
-      <c r="IO4" t="n">
+      <c r="IP4" t="n">
         <v>98.8</v>
       </c>
-      <c r="IP4" t="n">
+      <c r="IQ4" t="n">
         <v>98.7</v>
       </c>
-      <c r="IQ4" t="n">
+      <c r="IR4" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="IR4" t="n">
+      <c r="IS4" t="n">
         <v>98.8</v>
       </c>
-      <c r="IS4" t="n">
+      <c r="IT4" t="n">
         <v>98.3</v>
       </c>
-      <c r="IT4" t="n">
+      <c r="IU4" t="n">
         <v>98.59999999999999</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>98.40000000000001</v>
       </c>
       <c r="IV4" t="n">
         <v>98.40000000000001</v>
       </c>
       <c r="IW4" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="IX4" t="n">
         <v>97.90000000000001</v>
       </c>
-      <c r="IX4" t="n">
+      <c r="IY4" t="n">
         <v>97.5</v>
       </c>
-      <c r="IY4" t="n">
+      <c r="IZ4" t="n">
         <v>97.3</v>
       </c>
-      <c r="IZ4" t="n">
+      <c r="JA4" t="n">
         <v>98</v>
       </c>
-      <c r="JA4" t="n">
+      <c r="JB4" t="n">
         <v>99.7</v>
       </c>
-      <c r="JB4" t="n">
+      <c r="JC4" t="n">
         <v>98.40000000000001</v>
       </c>
-      <c r="JC4" t="n">
+      <c r="JD4" t="n">
         <v>98.2</v>
       </c>
-      <c r="JD4" t="n">
+      <c r="JE4" t="n">
         <v>97.59999999999999</v>
       </c>
-      <c r="JE4" t="n">
+      <c r="JF4" t="n">
         <v>97.2</v>
       </c>
-      <c r="JF4" t="n">
+      <c r="JG4" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="JG4" t="n">
+      <c r="JH4" t="n">
         <v>96.5</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>95.90000000000001</v>
       </c>
       <c r="JI4" t="n">
         <v>95.90000000000001</v>
       </c>
       <c r="JJ4" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="JK4" t="n">
         <v>96.90000000000001</v>
       </c>
-      <c r="JK4" t="n">
+      <c r="JL4" t="n">
         <v>95.90000000000001</v>
       </c>
-      <c r="JL4" t="n">
+      <c r="JM4" t="n">
         <v>96.09999999999999</v>
       </c>
-      <c r="JM4" t="n">
+      <c r="JN4" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="JN4" t="n">
+      <c r="JO4" t="n">
         <v>95.3</v>
       </c>
-      <c r="JO4" t="n">
+      <c r="JP4" t="n">
         <v>96.3</v>
       </c>
-      <c r="JP4" t="n">
+      <c r="JQ4" t="n">
         <v>95.90000000000001</v>
       </c>
-      <c r="JQ4" t="n">
+      <c r="JR4" t="n">
         <v>95.5</v>
       </c>
-      <c r="JR4" t="n">
+      <c r="JS4" t="n">
         <v>95.90000000000001</v>
       </c>
-      <c r="JS4" t="n">
+      <c r="JT4" t="n">
         <v>95.59999999999999</v>
       </c>
-      <c r="JT4" t="n">
+      <c r="JU4" t="n">
         <v>96</v>
       </c>
-      <c r="JU4" t="n">
+      <c r="JV4" t="n">
         <v>95.2</v>
       </c>
-      <c r="JV4" t="n">
+      <c r="JW4" t="n">
         <v>98.2</v>
       </c>
-      <c r="JW4" t="n">
+      <c r="JX4" t="n">
         <v>99.09999999999999</v>
       </c>
-      <c r="JX4" t="n">
+      <c r="JY4" t="n">
         <v>95.3</v>
-      </c>
-      <c r="JY4" t="n">
-        <v>96</v>
       </c>
       <c r="JZ4" t="n">
         <v>96</v>
       </c>
       <c r="KA4" t="n">
+        <v>96</v>
+      </c>
+      <c r="KB4" t="n">
         <v>97.2</v>
       </c>
-      <c r="KB4" t="n">
+      <c r="KC4" t="n">
         <v>96.5</v>
       </c>
-      <c r="KC4" t="n">
+      <c r="KD4" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="KD4" t="n">
+      <c r="KE4" t="n">
         <v>97.5</v>
       </c>
-      <c r="KE4" t="n">
+      <c r="KF4" t="n">
         <v>99.09999999999999</v>
       </c>
-      <c r="KF4" t="n">
+      <c r="KG4" t="n">
         <v>98.5</v>
       </c>
-      <c r="KG4" t="n">
+      <c r="KH4" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="KH4" t="n">
+      <c r="KI4" t="n">
         <v>98.8</v>
       </c>
-      <c r="KI4" t="n">
+      <c r="KJ4" t="n">
         <v>98.7</v>
       </c>
-      <c r="KJ4" t="n">
+      <c r="KK4" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="KK4" t="n">
+      <c r="KL4" t="n">
         <v>98.5</v>
       </c>
-      <c r="KL4" t="n">
+      <c r="KM4" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="KM4" t="n">
+      <c r="KN4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="KN4" t="n">
+      <c r="KO4" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="KO4" t="n">
+      <c r="KP4" t="n">
         <v>100.1</v>
       </c>
-      <c r="KP4" t="n">
+      <c r="KQ4" t="n">
         <v>99.7</v>
       </c>
-      <c r="KQ4" t="n">
+      <c r="KR4" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="KR4" t="n">
+      <c r="KS4" t="n">
         <v>99.5</v>
       </c>
-      <c r="KS4" t="n">
+      <c r="KT4" t="n">
         <v>99.09999999999999</v>
       </c>
-      <c r="KT4" t="n">
+      <c r="KU4" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="KU4" t="inlineStr"/>
       <c r="KV4" t="inlineStr"/>
       <c r="KW4" t="inlineStr"/>
       <c r="KX4" t="inlineStr"/>
@@ -6073,6 +6086,7 @@
       <c r="RA4" t="inlineStr"/>
       <c r="RB4" t="inlineStr"/>
       <c r="RC4" t="inlineStr"/>
+      <c r="RD4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
